--- a/Transavia/Production/Results/Results_daily_Brasov.xlsx
+++ b/Transavia/Production/Results/Results_daily_Brasov.xlsx
@@ -29,6 +29,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd.mm.yyyy"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -58,8 +61,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -354,7 +358,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -371,6 +375,1326 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>-0.0003715278871823102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0.000128999090520665</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>0.000128999090520665</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>0.000128999090520665</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>0.0001344057091046125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>0.0001675526291364804</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>0.0001658439578022808</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>0.001267149928025901</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>0.01385958306491375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>0.1654415130615234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>0.30370032787323</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>0.3126053214073181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>0.3772282004356384</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>0.3663521409034729</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>0.2925114929676056</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.2377011775970459</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0.09134814143180847</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>-6.192108412506059E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>-6.158930045785382E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>-6.01316278334707E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>-6.01316278334707E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>-3.88527951145079E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>-3.88527951145079E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>-3.88527951145079E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>1.522045749879908E-05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>-8.028656338865403E-06</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>8.305719347845297E-06</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>-3.614040542743169E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>-3.772871059481986E-05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>8.215179150283802E-06</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B32">
+        <v>6</v>
+      </c>
+      <c r="C32">
+        <v>9.022802260005847E-05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B33">
+        <v>7</v>
+      </c>
+      <c r="C33">
+        <v>0.0006336228107102215</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B34">
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <v>0.01854388415813446</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B35">
+        <v>9</v>
+      </c>
+      <c r="C35">
+        <v>0.3029256165027618</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B36">
+        <v>10</v>
+      </c>
+      <c r="C36">
+        <v>0.6034075021743774</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B37">
+        <v>11</v>
+      </c>
+      <c r="C37">
+        <v>1.128678679466248</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B38">
+        <v>12</v>
+      </c>
+      <c r="C38">
+        <v>1.617719769477844</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B39">
+        <v>13</v>
+      </c>
+      <c r="C39">
+        <v>1.820832371711731</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B40">
+        <v>14</v>
+      </c>
+      <c r="C40">
+        <v>1.618373870849609</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B41">
+        <v>15</v>
+      </c>
+      <c r="C41">
+        <v>0.6997615694999695</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B42">
+        <v>16</v>
+      </c>
+      <c r="C42">
+        <v>0.2518417835235596</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B43">
+        <v>17</v>
+      </c>
+      <c r="C43">
+        <v>-3.920136805390939E-05</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B44">
+        <v>18</v>
+      </c>
+      <c r="C44">
+        <v>-4.227114550303668E-05</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B45">
+        <v>19</v>
+      </c>
+      <c r="C45">
+        <v>-4.227114550303668E-05</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B46">
+        <v>20</v>
+      </c>
+      <c r="C46">
+        <v>-4.227114550303668E-05</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B47">
+        <v>21</v>
+      </c>
+      <c r="C47">
+        <v>-4.227114550303668E-05</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B48">
+        <v>22</v>
+      </c>
+      <c r="C48">
+        <v>-3.886959166266024E-05</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B49">
+        <v>23</v>
+      </c>
+      <c r="C49">
+        <v>-0.0001137291910708882</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>-5.633804903482087E-05</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>-3.706211646203883E-05</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>-2.827593016263563E-05</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53">
+        <v>-4.878744948655367E-05</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B54">
+        <v>4</v>
+      </c>
+      <c r="C54">
+        <v>-4.137805808568373E-05</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B55">
+        <v>5</v>
+      </c>
+      <c r="C55">
+        <v>-3.172968354192562E-05</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B56">
+        <v>6</v>
+      </c>
+      <c r="C56">
+        <v>3.297724833828397E-05</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B57">
+        <v>7</v>
+      </c>
+      <c r="C57">
+        <v>0.0005642433534376323</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B58">
+        <v>8</v>
+      </c>
+      <c r="C58">
+        <v>0.01587438210844994</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B59">
+        <v>9</v>
+      </c>
+      <c r="C59">
+        <v>0.2117917239665985</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B60">
+        <v>10</v>
+      </c>
+      <c r="C60">
+        <v>0.5114023685455322</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B61">
+        <v>11</v>
+      </c>
+      <c r="C61">
+        <v>0.7183851599693298</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B62">
+        <v>12</v>
+      </c>
+      <c r="C62">
+        <v>0.807909369468689</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B63">
+        <v>13</v>
+      </c>
+      <c r="C63">
+        <v>0.608411431312561</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B64">
+        <v>14</v>
+      </c>
+      <c r="C64">
+        <v>0.5333716869354248</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B65">
+        <v>15</v>
+      </c>
+      <c r="C65">
+        <v>0.2773688435554504</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B66">
+        <v>16</v>
+      </c>
+      <c r="C66">
+        <v>0.08770386129617691</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B67">
+        <v>17</v>
+      </c>
+      <c r="C67">
+        <v>-5.498279278981499E-05</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B68">
+        <v>18</v>
+      </c>
+      <c r="C68">
+        <v>-5.465100912260823E-05</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B69">
+        <v>19</v>
+      </c>
+      <c r="C69">
+        <v>-5.465100912260823E-05</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B70">
+        <v>20</v>
+      </c>
+      <c r="C70">
+        <v>-5.530908310902305E-05</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B71">
+        <v>21</v>
+      </c>
+      <c r="C71">
+        <v>-5.530908310902305E-05</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B72">
+        <v>22</v>
+      </c>
+      <c r="C72">
+        <v>-5.173611498321407E-05</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B73">
+        <v>23</v>
+      </c>
+      <c r="C73">
+        <v>-5.22957525390666E-05</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>-1.975381746888161E-05</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>-2.96801226795651E-05</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="C76">
+        <v>-5.742116627516225E-05</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B77">
+        <v>3</v>
+      </c>
+      <c r="C77">
+        <v>-3.692183236125857E-05</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B78">
+        <v>4</v>
+      </c>
+      <c r="C78">
+        <v>5.066626727057155E-06</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B79">
+        <v>5</v>
+      </c>
+      <c r="C79">
+        <v>3.129881588392891E-05</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B80">
+        <v>6</v>
+      </c>
+      <c r="C80">
+        <v>2.959012999781407E-05</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B81">
+        <v>7</v>
+      </c>
+      <c r="C81">
+        <v>0.0005802267696708441</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B82">
+        <v>8</v>
+      </c>
+      <c r="C82">
+        <v>0.00960115622729063</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B83">
+        <v>9</v>
+      </c>
+      <c r="C83">
+        <v>0.1443913877010345</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B84">
+        <v>10</v>
+      </c>
+      <c r="C84">
+        <v>0.3185749053955078</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B85">
+        <v>11</v>
+      </c>
+      <c r="C85">
+        <v>0.352769136428833</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B86">
+        <v>12</v>
+      </c>
+      <c r="C86">
+        <v>0.3778278827667236</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B87">
+        <v>13</v>
+      </c>
+      <c r="C87">
+        <v>0.3708288371562958</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B88">
+        <v>14</v>
+      </c>
+      <c r="C88">
+        <v>0.3191434741020203</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B89">
+        <v>15</v>
+      </c>
+      <c r="C89">
+        <v>0.2341149896383286</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B90">
+        <v>16</v>
+      </c>
+      <c r="C90">
+        <v>0.07009503245353699</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B91">
+        <v>17</v>
+      </c>
+      <c r="C91">
+        <v>-7.953312888275832E-05</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B92">
+        <v>18</v>
+      </c>
+      <c r="C92">
+        <v>-5.500759289134294E-05</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B93">
+        <v>19</v>
+      </c>
+      <c r="C93">
+        <v>-4.031046410091221E-05</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B94">
+        <v>20</v>
+      </c>
+      <c r="C94">
+        <v>-3.88527951145079E-05</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B95">
+        <v>21</v>
+      </c>
+      <c r="C95">
+        <v>0.0001137260624091141</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B96">
+        <v>22</v>
+      </c>
+      <c r="C96">
+        <v>0.0001137260624091141</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B97">
+        <v>23</v>
+      </c>
+      <c r="C97">
+        <v>-1.920266004162841E-05</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>-5.110015263198875E-05</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99">
+        <v>-3.614752131397836E-05</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B100">
+        <v>2</v>
+      </c>
+      <c r="C100">
+        <v>-3.541982368915342E-05</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B101">
+        <v>3</v>
+      </c>
+      <c r="C101">
+        <v>-4.901147258351557E-05</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B102">
+        <v>4</v>
+      </c>
+      <c r="C102">
+        <v>-4.13851739722304E-05</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B103">
+        <v>5</v>
+      </c>
+      <c r="C103">
+        <v>-8.238263944804203E-06</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B104">
+        <v>6</v>
+      </c>
+      <c r="C104">
+        <v>4.461067874217406E-05</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B105">
+        <v>7</v>
+      </c>
+      <c r="C105">
+        <v>0.0004617756349034607</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B106">
+        <v>8</v>
+      </c>
+      <c r="C106">
+        <v>0.01274903025478125</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B107">
+        <v>9</v>
+      </c>
+      <c r="C107">
+        <v>0.2202084064483643</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B108">
+        <v>10</v>
+      </c>
+      <c r="C108">
+        <v>0.5883027911186218</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B109">
+        <v>11</v>
+      </c>
+      <c r="C109">
+        <v>0.7517895102500916</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B110">
+        <v>12</v>
+      </c>
+      <c r="C110">
+        <v>1.210621118545532</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B111">
+        <v>13</v>
+      </c>
+      <c r="C111">
+        <v>0.939068615436554</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B112">
+        <v>14</v>
+      </c>
+      <c r="C112">
+        <v>0.7103628516197205</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B113">
+        <v>15</v>
+      </c>
+      <c r="C113">
+        <v>0.351731926202774</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B114">
+        <v>16</v>
+      </c>
+      <c r="C114">
+        <v>0.1719135791063309</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B115">
+        <v>17</v>
+      </c>
+      <c r="C115">
+        <v>-3.671899321489036E-05</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B116">
+        <v>18</v>
+      </c>
+      <c r="C116">
+        <v>-4.492429434321821E-05</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B117">
+        <v>19</v>
+      </c>
+      <c r="C117">
+        <v>-2.020352076215204E-05</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B118">
+        <v>20</v>
+      </c>
+      <c r="C118">
+        <v>-2.503559153410606E-05</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B119">
+        <v>21</v>
+      </c>
+      <c r="C119">
+        <v>-1.613198037375696E-05</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B120">
+        <v>22</v>
+      </c>
+      <c r="C120">
+        <v>-7.098736659827409E-06</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B121">
+        <v>23</v>
+      </c>
+      <c r="C121">
+        <v>-6.618796305701835E-06</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Transavia/Production/Results/Results_daily_Brasov.xlsx
+++ b/Transavia/Production/Results/Results_daily_Brasov.xlsx
@@ -358,7 +358,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C121"/>
+  <dimension ref="A1:C338"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -377,1322 +377,3709 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>45256</v>
+        <v>45364</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C2">
-        <v>-0.0003715278871823102</v>
+        <v>0.3462871313095093</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>45256</v>
+        <v>45364</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C3">
-        <v>0.000128999090520665</v>
+        <v>0.1212921366095543</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>45256</v>
+        <v>45364</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C4">
-        <v>0.000128999090520665</v>
+        <v>0.00228087930008769</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>45256</v>
+        <v>45364</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C5">
-        <v>0.000128999090520665</v>
+        <v>-2.062332350760698E-05</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>45256</v>
+        <v>45364</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C6">
-        <v>0.0001344057091046125</v>
+        <v>-5.328219413058832E-05</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>45256</v>
+        <v>45364</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C7">
-        <v>0.0001675526291364804</v>
+        <v>-5.328219413058832E-05</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>45256</v>
+        <v>45364</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C8">
-        <v>0.0001658439578022808</v>
+        <v>-2.306450551259331E-05</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>45256</v>
+        <v>45364</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C9">
-        <v>0.001267149928025901</v>
+        <v>-2.120841236319393E-05</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>45256</v>
+        <v>45364</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C10">
-        <v>0.01385958306491375</v>
+        <v>9.631042485125363E-05</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>45256</v>
+        <v>45365</v>
       </c>
       <c r="B11">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1654415130615234</v>
+        <v>9.951743413694203E-05</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>45256</v>
+        <v>45365</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>0.30370032787323</v>
+        <v>-4.157954754191451E-05</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>45256</v>
+        <v>45365</v>
       </c>
       <c r="B13">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>0.3126053214073181</v>
+        <v>-4.157954754191451E-05</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>45256</v>
+        <v>45365</v>
       </c>
       <c r="B14">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>0.3772282004356384</v>
+        <v>-4.157954754191451E-05</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>45256</v>
+        <v>45365</v>
       </c>
       <c r="B15">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C15">
-        <v>0.3663521409034729</v>
+        <v>-3.617296533775516E-05</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>45256</v>
+        <v>45365</v>
       </c>
       <c r="B16">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C16">
-        <v>0.2925114929676056</v>
+        <v>0.004788997117429972</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>45256</v>
+        <v>45365</v>
       </c>
       <c r="B17">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C17">
-        <v>0.2377011775970459</v>
+        <v>0.1269421279430389</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>45256</v>
+        <v>45365</v>
       </c>
       <c r="B18">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C18">
-        <v>0.09134814143180847</v>
+        <v>0.3262384235858917</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>45256</v>
+        <v>45365</v>
       </c>
       <c r="B19">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C19">
-        <v>-6.192108412506059E-05</v>
+        <v>0.4086916744709015</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>45256</v>
+        <v>45365</v>
       </c>
       <c r="B20">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C20">
-        <v>-6.158930045785382E-05</v>
+        <v>0.4958333075046539</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>45256</v>
+        <v>45365</v>
       </c>
       <c r="B21">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C21">
-        <v>-6.01316278334707E-05</v>
+        <v>0.5913734436035156</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>45256</v>
+        <v>45365</v>
       </c>
       <c r="B22">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C22">
-        <v>-6.01316278334707E-05</v>
+        <v>0.5751310586929321</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>45256</v>
+        <v>45365</v>
       </c>
       <c r="B23">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C23">
-        <v>-3.88527951145079E-05</v>
+        <v>0.4689515829086304</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>45256</v>
+        <v>45365</v>
       </c>
       <c r="B24">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C24">
-        <v>-3.88527951145079E-05</v>
+        <v>0.4012089669704437</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>45256</v>
+        <v>45365</v>
       </c>
       <c r="B25">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C25">
-        <v>-3.88527951145079E-05</v>
+        <v>0.3200555443763733</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>45257</v>
+        <v>45365</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C26">
-        <v>1.522045749879908E-05</v>
+        <v>0.2446605563163757</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>45257</v>
+        <v>45365</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C27">
-        <v>-8.028656338865403E-06</v>
+        <v>0.08674632012844086</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>45257</v>
+        <v>45365</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C28">
-        <v>8.305719347845297E-06</v>
+        <v>0.004905698820948601</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>45257</v>
+        <v>45365</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C29">
-        <v>-3.614040542743169E-05</v>
+        <v>-5.142610461916775E-05</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>45257</v>
+        <v>45365</v>
       </c>
       <c r="B30">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C30">
-        <v>-3.772871059481986E-05</v>
+        <v>-5.49714604858309E-05</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>45257</v>
+        <v>45365</v>
       </c>
       <c r="B31">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C31">
-        <v>8.215179150283802E-06</v>
+        <v>-5.49714604858309E-05</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>45257</v>
+        <v>45365</v>
       </c>
       <c r="B32">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C32">
-        <v>9.022802260005847E-05</v>
+        <v>-5.323452205630019E-05</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>45257</v>
+        <v>45365</v>
       </c>
       <c r="B33">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C33">
-        <v>0.0006336228107102215</v>
+        <v>-1.61176358233206E-05</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>45257</v>
+        <v>45365</v>
       </c>
       <c r="B34">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C34">
-        <v>0.01854388415813446</v>
+        <v>3.150088377879001E-05</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>45257</v>
+        <v>45366</v>
       </c>
       <c r="B35">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>0.3029256165027618</v>
+        <v>7.609662134200335E-05</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>45257</v>
+        <v>45366</v>
       </c>
       <c r="B36">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C36">
-        <v>0.6034075021743774</v>
+        <v>-8.510579937137663E-05</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>45257</v>
+        <v>45366</v>
       </c>
       <c r="B37">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C37">
-        <v>1.128678679466248</v>
+        <v>-8.510579937137663E-05</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>45257</v>
+        <v>45366</v>
       </c>
       <c r="B38">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C38">
-        <v>1.617719769477844</v>
+        <v>7.609662134200335E-05</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>45257</v>
+        <v>45366</v>
       </c>
       <c r="B39">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C39">
-        <v>1.820832371711731</v>
+        <v>8.150319627020508E-05</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>45257</v>
+        <v>45366</v>
       </c>
       <c r="B40">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C40">
-        <v>1.618373870849609</v>
+        <v>0.007150235120207071</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>45257</v>
+        <v>45366</v>
       </c>
       <c r="B41">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C41">
-        <v>0.6997615694999695</v>
+        <v>0.1388994008302689</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>45257</v>
+        <v>45366</v>
       </c>
       <c r="B42">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C42">
-        <v>0.2518417835235596</v>
+        <v>0.406975269317627</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>45257</v>
+        <v>45366</v>
       </c>
       <c r="B43">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C43">
-        <v>-3.920136805390939E-05</v>
+        <v>0.5771895051002502</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>45257</v>
+        <v>45366</v>
       </c>
       <c r="B44">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C44">
-        <v>-4.227114550303668E-05</v>
+        <v>0.745314359664917</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>45257</v>
+        <v>45366</v>
       </c>
       <c r="B45">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C45">
-        <v>-4.227114550303668E-05</v>
+        <v>0.7975509166717529</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>45257</v>
+        <v>45366</v>
       </c>
       <c r="B46">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C46">
-        <v>-4.227114550303668E-05</v>
+        <v>0.9438585042953491</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>45257</v>
+        <v>45366</v>
       </c>
       <c r="B47">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C47">
-        <v>-4.227114550303668E-05</v>
+        <v>0.77045077085495</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>45257</v>
+        <v>45366</v>
       </c>
       <c r="B48">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C48">
-        <v>-3.886959166266024E-05</v>
+        <v>0.6710867881774902</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>45257</v>
+        <v>45366</v>
       </c>
       <c r="B49">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C49">
-        <v>-0.0001137291910708882</v>
+        <v>0.6483891010284424</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>45258</v>
+        <v>45366</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C50">
-        <v>-5.633804903482087E-05</v>
+        <v>0.4720459878444672</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>45258</v>
+        <v>45366</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C51">
-        <v>-3.706211646203883E-05</v>
+        <v>0.1868816614151001</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>45258</v>
+        <v>45366</v>
       </c>
       <c r="B52">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C52">
-        <v>-2.827593016263563E-05</v>
+        <v>0.004198730923235416</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
-        <v>45258</v>
+        <v>45366</v>
       </c>
       <c r="B53">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C53">
-        <v>-4.878744948655367E-05</v>
+        <v>-5.647083980875323E-06</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>45258</v>
+        <v>45366</v>
       </c>
       <c r="B54">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C54">
-        <v>-4.137805808568373E-05</v>
+        <v>-9.209661584463902E-06</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
-        <v>45258</v>
+        <v>45366</v>
       </c>
       <c r="B55">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C55">
-        <v>-3.172968354192562E-05</v>
+        <v>-3.01865179608285E-06</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
-        <v>45258</v>
+        <v>45366</v>
       </c>
       <c r="B56">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C56">
-        <v>3.297724833828397E-05</v>
+        <v>-3.01865179608285E-06</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>45258</v>
+        <v>45366</v>
       </c>
       <c r="B57">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C57">
-        <v>0.0005642433534376323</v>
+        <v>1.313374650635524E-05</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>45258</v>
+        <v>45366</v>
       </c>
       <c r="B58">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C58">
-        <v>0.01587438210844994</v>
+        <v>1.207653895107796E-05</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1">
-        <v>45258</v>
+        <v>45367</v>
       </c>
       <c r="B59">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C59">
-        <v>0.2117917239665985</v>
+        <v>-5.529799409487168E-07</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1">
-        <v>45258</v>
+        <v>45367</v>
       </c>
       <c r="B60">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C60">
-        <v>0.5114023685455322</v>
+        <v>-3.073140760534443E-06</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1">
-        <v>45258</v>
+        <v>45367</v>
       </c>
       <c r="B61">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C61">
-        <v>0.7183851599693298</v>
+        <v>-2.368168497923762E-05</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1">
-        <v>45258</v>
+        <v>45367</v>
       </c>
       <c r="B62">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C62">
-        <v>0.807909369468689</v>
+        <v>-1.659256668062881E-05</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1">
-        <v>45258</v>
+        <v>45367</v>
       </c>
       <c r="B63">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C63">
-        <v>0.608411431312561</v>
+        <v>2.264382601424586E-06</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1">
-        <v>45258</v>
+        <v>45367</v>
       </c>
       <c r="B64">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C64">
-        <v>0.5333716869354248</v>
+        <v>0.0216828491538763</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1">
-        <v>45258</v>
+        <v>45367</v>
       </c>
       <c r="B65">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C65">
-        <v>0.2773688435554504</v>
+        <v>0.3553696274757385</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1">
-        <v>45258</v>
+        <v>45367</v>
       </c>
       <c r="B66">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C66">
-        <v>0.08770386129617691</v>
+        <v>1.052665948867798</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1">
-        <v>45258</v>
+        <v>45367</v>
       </c>
       <c r="B67">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C67">
-        <v>-5.498279278981499E-05</v>
+        <v>1.873238086700439</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1">
-        <v>45258</v>
+        <v>45367</v>
       </c>
       <c r="B68">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C68">
-        <v>-5.465100912260823E-05</v>
+        <v>2.444881677627563</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1">
-        <v>45258</v>
+        <v>45367</v>
       </c>
       <c r="B69">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C69">
-        <v>-5.465100912260823E-05</v>
+        <v>2.659180164337158</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1">
-        <v>45258</v>
+        <v>45367</v>
       </c>
       <c r="B70">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C70">
-        <v>-5.530908310902305E-05</v>
+        <v>2.551270723342896</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1">
-        <v>45258</v>
+        <v>45367</v>
       </c>
       <c r="B71">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C71">
-        <v>-5.530908310902305E-05</v>
+        <v>1.971879839897156</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1">
-        <v>45258</v>
+        <v>45367</v>
       </c>
       <c r="B72">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C72">
-        <v>-5.173611498321407E-05</v>
+        <v>1.405691623687744</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1">
-        <v>45258</v>
+        <v>45367</v>
       </c>
       <c r="B73">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C73">
-        <v>-5.22957525390666E-05</v>
+        <v>1.027573704719543</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1">
-        <v>45259</v>
+        <v>45367</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C74">
-        <v>-1.975381746888161E-05</v>
+        <v>0.6059806942939758</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1">
-        <v>45259</v>
+        <v>45367</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C75">
-        <v>-2.96801226795651E-05</v>
+        <v>0.2020996063947678</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1">
-        <v>45259</v>
+        <v>45367</v>
       </c>
       <c r="B76">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C76">
-        <v>-5.742116627516225E-05</v>
+        <v>0.006635216064751148</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1">
-        <v>45259</v>
+        <v>45367</v>
       </c>
       <c r="B77">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C77">
-        <v>-3.692183236125857E-05</v>
+        <v>3.132584242848679E-05</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1">
-        <v>45259</v>
+        <v>45367</v>
       </c>
       <c r="B78">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C78">
-        <v>5.066626727057155E-06</v>
+        <v>3.708470831043087E-05</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1">
-        <v>45259</v>
+        <v>45367</v>
       </c>
       <c r="B79">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C79">
-        <v>3.129881588392891E-05</v>
+        <v>3.708470831043087E-05</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1">
-        <v>45259</v>
+        <v>45367</v>
       </c>
       <c r="B80">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C80">
-        <v>2.959012999781407E-05</v>
+        <v>3.890108564519323E-05</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1">
-        <v>45259</v>
+        <v>45367</v>
       </c>
       <c r="B81">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C81">
-        <v>0.0005802267696708441</v>
+        <v>-7.402702613035217E-05</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1">
-        <v>45259</v>
+        <v>45367</v>
       </c>
       <c r="B82">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C82">
-        <v>0.00960115622729063</v>
+        <v>-7.402702613035217E-05</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1">
-        <v>45259</v>
+        <v>45368</v>
       </c>
       <c r="B83">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C83">
-        <v>0.1443913877010345</v>
+        <v>5.067154052085243E-05</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1">
-        <v>45259</v>
+        <v>45368</v>
       </c>
       <c r="B84">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C84">
-        <v>0.3185749053955078</v>
+        <v>2.469492937962059E-05</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1">
-        <v>45259</v>
+        <v>45368</v>
       </c>
       <c r="B85">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C85">
-        <v>0.352769136428833</v>
+        <v>2.739935189310927E-05</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1">
-        <v>45259</v>
+        <v>45368</v>
       </c>
       <c r="B86">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C86">
-        <v>0.3778278827667236</v>
+        <v>5.420207162387669E-05</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1">
-        <v>45259</v>
+        <v>45368</v>
       </c>
       <c r="B87">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C87">
-        <v>0.3708288371562958</v>
+        <v>7.054633897496387E-05</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1">
-        <v>45259</v>
+        <v>45368</v>
       </c>
       <c r="B88">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C88">
-        <v>0.3191434741020203</v>
+        <v>0.01362353097647429</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1">
-        <v>45259</v>
+        <v>45368</v>
       </c>
       <c r="B89">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C89">
-        <v>0.2341149896383286</v>
+        <v>0.247588723897934</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1">
-        <v>45259</v>
+        <v>45368</v>
       </c>
       <c r="B90">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C90">
-        <v>0.07009503245353699</v>
+        <v>0.5907191634178162</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1">
-        <v>45259</v>
+        <v>45368</v>
       </c>
       <c r="B91">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C91">
-        <v>-7.953312888275832E-05</v>
+        <v>1.121100544929504</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1">
-        <v>45259</v>
+        <v>45368</v>
       </c>
       <c r="B92">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C92">
-        <v>-5.500759289134294E-05</v>
+        <v>1.54240345954895</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1">
-        <v>45259</v>
+        <v>45368</v>
       </c>
       <c r="B93">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C93">
-        <v>-4.031046410091221E-05</v>
+        <v>1.607925653457642</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1">
-        <v>45259</v>
+        <v>45368</v>
       </c>
       <c r="B94">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C94">
-        <v>-3.88527951145079E-05</v>
+        <v>1.566905856132507</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1">
-        <v>45259</v>
+        <v>45368</v>
       </c>
       <c r="B95">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C95">
-        <v>0.0001137260624091141</v>
+        <v>1.315888285636902</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1">
-        <v>45259</v>
+        <v>45368</v>
       </c>
       <c r="B96">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C96">
-        <v>0.0001137260624091141</v>
+        <v>1.021163105964661</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1">
-        <v>45259</v>
+        <v>45368</v>
       </c>
       <c r="B97">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C97">
-        <v>-1.920266004162841E-05</v>
+        <v>0.8901532292366028</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1">
-        <v>45260</v>
+        <v>45368</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C98">
-        <v>-5.110015263198875E-05</v>
+        <v>0.482256680727005</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1">
-        <v>45260</v>
+        <v>45368</v>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C99">
-        <v>-3.614752131397836E-05</v>
+        <v>0.1842759400606155</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1">
-        <v>45260</v>
+        <v>45368</v>
       </c>
       <c r="B100">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C100">
-        <v>-3.541982368915342E-05</v>
+        <v>0.006581722293049097</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1">
-        <v>45260</v>
+        <v>45368</v>
       </c>
       <c r="B101">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C101">
-        <v>-4.901147258351557E-05</v>
+        <v>2.349791884626029E-06</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1">
-        <v>45260</v>
+        <v>45368</v>
       </c>
       <c r="B102">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C102">
-        <v>-4.13851739722304E-05</v>
+        <v>2.349791884626029E-06</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1">
-        <v>45260</v>
+        <v>45368</v>
       </c>
       <c r="B103">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C103">
-        <v>-8.238263944804203E-06</v>
+        <v>-1.782744220690802E-05</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1">
-        <v>45260</v>
+        <v>45368</v>
       </c>
       <c r="B104">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C104">
-        <v>4.461067874217406E-05</v>
+        <v>-1.782744220690802E-05</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1">
-        <v>45260</v>
+        <v>45368</v>
       </c>
       <c r="B105">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C105">
-        <v>0.0004617756349034607</v>
+        <v>-1.60905001393985E-05</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1">
-        <v>45260</v>
+        <v>45368</v>
       </c>
       <c r="B106">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C106">
-        <v>0.01274903025478125</v>
+        <v>0.0001968821452464908</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="B107">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C107">
-        <v>0.2202084064483643</v>
+        <v>0.0007001749472692609</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="B108">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C108">
-        <v>0.5883027911186218</v>
+        <v>6.866081093903631E-05</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="B109">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C109">
-        <v>0.7517895102500916</v>
+        <v>6.759543612133712E-05</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="B110">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C110">
-        <v>1.210621118545532</v>
+        <v>4.934438038617373E-05</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="B111">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C111">
-        <v>0.939068615436554</v>
+        <v>5.697065716958605E-05</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="B112">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C112">
-        <v>0.7103628516197205</v>
+        <v>0.01676288060843945</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="B113">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C113">
-        <v>0.351731926202774</v>
+        <v>0.2508996427059174</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="B114">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C114">
-        <v>0.1719135791063309</v>
+        <v>0.6301684379577637</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="B115">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C115">
-        <v>-3.671899321489036E-05</v>
+        <v>1.054024577140808</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="B116">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C116">
-        <v>-4.492429434321821E-05</v>
+        <v>1.305312395095825</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="B117">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C117">
-        <v>-2.020352076215204E-05</v>
+        <v>1.494902729988098</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="B118">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C118">
-        <v>-2.503559153410606E-05</v>
+        <v>1.477061748504639</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="B119">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C119">
-        <v>-1.613198037375696E-05</v>
+        <v>1.267867803573608</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="B120">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C120">
-        <v>-7.098736659827409E-06</v>
+        <v>1.035472989082336</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1">
-        <v>45260</v>
+        <v>45369</v>
       </c>
       <c r="B121">
+        <v>14</v>
+      </c>
+      <c r="C121">
+        <v>0.7650110721588135</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="1">
+        <v>45369</v>
+      </c>
+      <c r="B122">
+        <v>15</v>
+      </c>
+      <c r="C122">
+        <v>0.4113827645778656</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="1">
+        <v>45369</v>
+      </c>
+      <c r="B123">
+        <v>16</v>
+      </c>
+      <c r="C123">
+        <v>0.1410350501537323</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="1">
+        <v>45369</v>
+      </c>
+      <c r="B124">
+        <v>17</v>
+      </c>
+      <c r="C124">
+        <v>0.00500219501554966</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="1">
+        <v>45369</v>
+      </c>
+      <c r="B125">
+        <v>18</v>
+      </c>
+      <c r="C125">
+        <v>-1.058231759998307E-06</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="1">
+        <v>45369</v>
+      </c>
+      <c r="B126">
+        <v>19</v>
+      </c>
+      <c r="C126">
+        <v>-4.499311035033315E-05</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="1">
+        <v>45369</v>
+      </c>
+      <c r="B127">
+        <v>20</v>
+      </c>
+      <c r="C127">
+        <v>-5.633146065520123E-05</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="1">
+        <v>45369</v>
+      </c>
+      <c r="B128">
+        <v>21</v>
+      </c>
+      <c r="C128">
+        <v>-5.633146065520123E-05</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="1">
+        <v>45369</v>
+      </c>
+      <c r="B129">
+        <v>22</v>
+      </c>
+      <c r="C129">
+        <v>-5.806839180877432E-05</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="1">
+        <v>45369</v>
+      </c>
+      <c r="B130">
         <v>23</v>
       </c>
-      <c r="C121">
-        <v>-6.618796305701835E-06</v>
+      <c r="C130">
+        <v>-5.806839180877432E-05</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+      <c r="C131">
+        <v>5.301041892380454E-05</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+      <c r="C132">
+        <v>8.13664955785498E-05</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B133">
+        <v>2</v>
+      </c>
+      <c r="C133">
+        <v>8.70308795128949E-05</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B134">
+        <v>3</v>
+      </c>
+      <c r="C134">
+        <v>5.563680315390229E-05</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B135">
+        <v>4</v>
+      </c>
+      <c r="C135">
+        <v>5.402220267569646E-05</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B136">
+        <v>5</v>
+      </c>
+      <c r="C136">
+        <v>0.02886388450860977</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B137">
+        <v>6</v>
+      </c>
+      <c r="C137">
+        <v>0.3355329036712646</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B138">
+        <v>7</v>
+      </c>
+      <c r="C138">
+        <v>0.8427886962890625</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B139">
+        <v>8</v>
+      </c>
+      <c r="C139">
+        <v>1.391023755073547</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B140">
+        <v>9</v>
+      </c>
+      <c r="C140">
+        <v>1.894558072090149</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B141">
+        <v>10</v>
+      </c>
+      <c r="C141">
+        <v>2.143621206283569</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B142">
+        <v>11</v>
+      </c>
+      <c r="C142">
+        <v>2.259795665740967</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B143">
+        <v>12</v>
+      </c>
+      <c r="C143">
+        <v>2.047529697418213</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B144">
+        <v>13</v>
+      </c>
+      <c r="C144">
+        <v>1.648206472396851</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B145">
+        <v>14</v>
+      </c>
+      <c r="C145">
+        <v>1.130997657775879</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B146">
+        <v>15</v>
+      </c>
+      <c r="C146">
+        <v>0.6158397793769836</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B147">
+        <v>16</v>
+      </c>
+      <c r="C147">
+        <v>0.2195809632539749</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B148">
+        <v>17</v>
+      </c>
+      <c r="C148">
+        <v>0.009048543870449066</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B149">
+        <v>18</v>
+      </c>
+      <c r="C149">
+        <v>-0.000253087462624535</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B150">
+        <v>19</v>
+      </c>
+      <c r="C150">
+        <v>-6.456438131863251E-05</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B151">
+        <v>20</v>
+      </c>
+      <c r="C151">
+        <v>-6.456438131863251E-05</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B152">
+        <v>21</v>
+      </c>
+      <c r="C152">
+        <v>-6.456438131863251E-05</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B153">
+        <v>22</v>
+      </c>
+      <c r="C153">
+        <v>-5.633146065520123E-05</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B154">
+        <v>23</v>
+      </c>
+      <c r="C154">
+        <v>-4.499311035033315E-05</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+      <c r="C155">
+        <v>0.0001178988095489331</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B156">
+        <v>1</v>
+      </c>
+      <c r="C156">
+        <v>9.693195170257241E-05</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B157">
+        <v>2</v>
+      </c>
+      <c r="C157">
+        <v>7.571515016024932E-05</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B158">
+        <v>3</v>
+      </c>
+      <c r="C158">
+        <v>0.0001900260540423915</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B159">
+        <v>4</v>
+      </c>
+      <c r="C159">
+        <v>0.000162602897034958</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B160">
+        <v>5</v>
+      </c>
+      <c r="C160">
+        <v>0.0135516244918108</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B161">
+        <v>6</v>
+      </c>
+      <c r="C161">
+        <v>0.1738144010305405</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B162">
+        <v>7</v>
+      </c>
+      <c r="C162">
+        <v>0.3865506649017334</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B163">
+        <v>8</v>
+      </c>
+      <c r="C163">
+        <v>0.5309739112854004</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B164">
+        <v>9</v>
+      </c>
+      <c r="C164">
+        <v>0.7290359139442444</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B165">
+        <v>10</v>
+      </c>
+      <c r="C165">
+        <v>0.8743652105331421</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B166">
+        <v>11</v>
+      </c>
+      <c r="C166">
+        <v>0.8507404923439026</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B167">
+        <v>12</v>
+      </c>
+      <c r="C167">
+        <v>0.7217038869857788</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B168">
+        <v>13</v>
+      </c>
+      <c r="C168">
+        <v>0.5642326474189758</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B169">
+        <v>14</v>
+      </c>
+      <c r="C169">
+        <v>0.4456178247928619</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B170">
+        <v>15</v>
+      </c>
+      <c r="C170">
+        <v>0.3054499924182892</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B171">
+        <v>16</v>
+      </c>
+      <c r="C171">
+        <v>0.1225156113505363</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B172">
+        <v>17</v>
+      </c>
+      <c r="C172">
+        <v>0.006888863630592823</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B173">
+        <v>18</v>
+      </c>
+      <c r="C173">
+        <v>0.000240038221818395</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B174">
+        <v>19</v>
+      </c>
+      <c r="C174">
+        <v>-8.214348054025322E-05</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B175">
+        <v>20</v>
+      </c>
+      <c r="C175">
+        <v>-0.000253087462624535</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B176">
+        <v>21</v>
+      </c>
+      <c r="C176">
+        <v>-0.000183443640707992</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B177">
+        <v>22</v>
+      </c>
+      <c r="C177">
+        <v>-0.0001688385382294655</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B178">
+        <v>23</v>
+      </c>
+      <c r="C178">
+        <v>-4.794305641553365E-05</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B179">
+        <v>0</v>
+      </c>
+      <c r="C179">
+        <v>-0.0001156272046500817</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B180">
+        <v>1</v>
+      </c>
+      <c r="C180">
+        <v>8.70308795128949E-05</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B181">
+        <v>2</v>
+      </c>
+      <c r="C181">
+        <v>8.70308795128949E-05</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B182">
+        <v>3</v>
+      </c>
+      <c r="C182">
+        <v>8.70308795128949E-05</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B183">
+        <v>4</v>
+      </c>
+      <c r="C183">
+        <v>9.320388926425949E-05</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B184">
+        <v>5</v>
+      </c>
+      <c r="C184">
+        <v>0.02402918413281441</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B185">
+        <v>6</v>
+      </c>
+      <c r="C185">
+        <v>0.2920271158218384</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B186">
+        <v>7</v>
+      </c>
+      <c r="C186">
+        <v>0.7584142088890076</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B187">
+        <v>8</v>
+      </c>
+      <c r="C187">
+        <v>1.177489280700684</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B188">
+        <v>9</v>
+      </c>
+      <c r="C188">
+        <v>1.487966060638428</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B189">
+        <v>10</v>
+      </c>
+      <c r="C189">
+        <v>1.649931788444519</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B190">
+        <v>11</v>
+      </c>
+      <c r="C190">
+        <v>1.560837268829346</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B191">
+        <v>12</v>
+      </c>
+      <c r="C191">
+        <v>1.51218569278717</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B192">
+        <v>13</v>
+      </c>
+      <c r="C192">
+        <v>1.253047466278076</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B193">
+        <v>14</v>
+      </c>
+      <c r="C193">
+        <v>0.9633248448371887</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B194">
+        <v>15</v>
+      </c>
+      <c r="C194">
+        <v>0.5037682056427002</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B195">
+        <v>16</v>
+      </c>
+      <c r="C195">
+        <v>0.1765177696943283</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B196">
+        <v>17</v>
+      </c>
+      <c r="C196">
+        <v>0.006311993114650249</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B197">
+        <v>18</v>
+      </c>
+      <c r="C197">
+        <v>0.0001559782103868201</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B198">
+        <v>19</v>
+      </c>
+      <c r="C198">
+        <v>-0.000183443640707992</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B199">
+        <v>20</v>
+      </c>
+      <c r="C199">
+        <v>-0.0001740867010084912</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B200">
+        <v>21</v>
+      </c>
+      <c r="C200">
+        <v>-0.0001776492863427848</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B201">
+        <v>22</v>
+      </c>
+      <c r="C201">
+        <v>-0.0001776492863427848</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B202">
+        <v>23</v>
+      </c>
+      <c r="C202">
+        <v>-0.000157137808855623</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B203">
+        <v>0</v>
+      </c>
+      <c r="C203">
+        <v>1.687500480329618E-05</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B204">
+        <v>1</v>
+      </c>
+      <c r="C204">
+        <v>1.091198373615043E-05</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B205">
+        <v>2</v>
+      </c>
+      <c r="C205">
+        <v>1.091198373615043E-05</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B206">
+        <v>3</v>
+      </c>
+      <c r="C206">
+        <v>-0.0001247410546056926</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B207">
+        <v>4</v>
+      </c>
+      <c r="C207">
+        <v>-0.0001249716442544013</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B208">
+        <v>5</v>
+      </c>
+      <c r="C208">
+        <v>0.0220036506652832</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B209">
+        <v>6</v>
+      </c>
+      <c r="C209">
+        <v>0.2517768740653992</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B210">
+        <v>7</v>
+      </c>
+      <c r="C210">
+        <v>0.6345142126083374</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B211">
+        <v>8</v>
+      </c>
+      <c r="C211">
+        <v>1.103893876075745</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B212">
+        <v>9</v>
+      </c>
+      <c r="C212">
+        <v>1.462003707885742</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B213">
+        <v>10</v>
+      </c>
+      <c r="C213">
+        <v>1.656556367874146</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B214">
+        <v>11</v>
+      </c>
+      <c r="C214">
+        <v>1.598663806915283</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B215">
+        <v>12</v>
+      </c>
+      <c r="C215">
+        <v>1.320256352424622</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B216">
+        <v>13</v>
+      </c>
+      <c r="C216">
+        <v>0.9448376297950745</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B217">
+        <v>14</v>
+      </c>
+      <c r="C217">
+        <v>0.4786777794361115</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B218">
+        <v>15</v>
+      </c>
+      <c r="C218">
+        <v>0.3065889477729797</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B219">
+        <v>16</v>
+      </c>
+      <c r="C219">
+        <v>0.08805453032255173</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B220">
+        <v>17</v>
+      </c>
+      <c r="C220">
+        <v>0.004894118756055832</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B221">
+        <v>18</v>
+      </c>
+      <c r="C221">
+        <v>0.0001467656984459609</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B222">
+        <v>19</v>
+      </c>
+      <c r="C222">
+        <v>-1.404214708600193E-05</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B223">
+        <v>20</v>
+      </c>
+      <c r="C223">
+        <v>0.0001549986045574769</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B224">
+        <v>21</v>
+      </c>
+      <c r="C224">
+        <v>5.966391836409457E-05</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B225">
+        <v>22</v>
+      </c>
+      <c r="C225">
+        <v>2.049684553639963E-05</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B226">
+        <v>23</v>
+      </c>
+      <c r="C226">
+        <v>1.914435870276066E-06</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <v>0.0001389960816595703</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B228">
+        <v>1</v>
+      </c>
+      <c r="C228">
+        <v>0.000152523978613317</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B229">
+        <v>2</v>
+      </c>
+      <c r="C229">
+        <v>-2.786658842524048E-05</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B230">
+        <v>3</v>
+      </c>
+      <c r="C230">
+        <v>-0.001003675977699459</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B231">
+        <v>4</v>
+      </c>
+      <c r="C231">
+        <v>0.0001003591023618355</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B232">
+        <v>5</v>
+      </c>
+      <c r="C232">
+        <v>0.01351221837103367</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B233">
+        <v>6</v>
+      </c>
+      <c r="C233">
+        <v>0.166287750005722</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B234">
+        <v>7</v>
+      </c>
+      <c r="C234">
+        <v>0.3530118763446808</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B235">
+        <v>8</v>
+      </c>
+      <c r="C235">
+        <v>0.5259039998054504</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B236">
+        <v>9</v>
+      </c>
+      <c r="C236">
+        <v>0.7240838408470154</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B237">
+        <v>10</v>
+      </c>
+      <c r="C237">
+        <v>0.9647195935249329</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B238">
+        <v>11</v>
+      </c>
+      <c r="C238">
+        <v>1.234571933746338</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B239">
+        <v>12</v>
+      </c>
+      <c r="C239">
+        <v>1.507274270057678</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B240">
+        <v>13</v>
+      </c>
+      <c r="C240">
+        <v>1.482616901397705</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B241">
+        <v>14</v>
+      </c>
+      <c r="C241">
+        <v>1.04169499874115</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B242">
+        <v>15</v>
+      </c>
+      <c r="C242">
+        <v>0.619111180305481</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B243">
+        <v>16</v>
+      </c>
+      <c r="C243">
+        <v>0.222661942243576</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B244">
+        <v>17</v>
+      </c>
+      <c r="C244">
+        <v>0.01005130633711815</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B245">
+        <v>18</v>
+      </c>
+      <c r="C245">
+        <v>-1.058231759998307E-06</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B246">
+        <v>19</v>
+      </c>
+      <c r="C246">
+        <v>-2.227504592156038E-05</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B247">
+        <v>20</v>
+      </c>
+      <c r="C247">
+        <v>0.0001549986045574769</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B248">
+        <v>21</v>
+      </c>
+      <c r="C248">
+        <v>0.0001549986045574769</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B249">
+        <v>22</v>
+      </c>
+      <c r="C249">
+        <v>2.049684553639963E-05</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" s="1">
+        <v>45374</v>
+      </c>
+      <c r="B250">
+        <v>23</v>
+      </c>
+      <c r="C250">
+        <v>3.718104198924266E-05</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B251">
+        <v>0</v>
+      </c>
+      <c r="C251">
+        <v>-2.964539999084082E-05</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B252">
+        <v>1</v>
+      </c>
+      <c r="C252">
+        <v>0.0001370825339108706</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B253">
+        <v>2</v>
+      </c>
+      <c r="C253">
+        <v>0.0001370825339108706</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B254">
+        <v>3</v>
+      </c>
+      <c r="C254">
+        <v>7.321919110836461E-05</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B255">
+        <v>4</v>
+      </c>
+      <c r="C255">
+        <v>7.862578058848158E-05</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B256">
+        <v>5</v>
+      </c>
+      <c r="C256">
+        <v>0.01953908987343311</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B257">
+        <v>6</v>
+      </c>
+      <c r="C257">
+        <v>0.1868827491998672</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B258">
+        <v>7</v>
+      </c>
+      <c r="C258">
+        <v>0.412116527557373</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B259">
+        <v>8</v>
+      </c>
+      <c r="C259">
+        <v>0.689710259437561</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B260">
+        <v>9</v>
+      </c>
+      <c r="C260">
+        <v>1.023193836212158</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B261">
+        <v>10</v>
+      </c>
+      <c r="C261">
+        <v>1.296039462089539</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B262">
+        <v>11</v>
+      </c>
+      <c r="C262">
+        <v>1.619257569313049</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B263">
+        <v>12</v>
+      </c>
+      <c r="C263">
+        <v>1.748269200325012</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B264">
+        <v>13</v>
+      </c>
+      <c r="C264">
+        <v>1.644418835639954</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B265">
+        <v>14</v>
+      </c>
+      <c r="C265">
+        <v>1.300042986869812</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B266">
+        <v>15</v>
+      </c>
+      <c r="C266">
+        <v>0.8932664394378662</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B267">
+        <v>16</v>
+      </c>
+      <c r="C267">
+        <v>0.2969687283039093</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B268">
+        <v>17</v>
+      </c>
+      <c r="C268">
+        <v>0.01606787741184235</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B269">
+        <v>18</v>
+      </c>
+      <c r="C269">
+        <v>-5.883106950932415E-06</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B270">
+        <v>19</v>
+      </c>
+      <c r="C270">
+        <v>-5.633146065520123E-05</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B271">
+        <v>20</v>
+      </c>
+      <c r="C271">
+        <v>-5.806839180877432E-05</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B272">
+        <v>21</v>
+      </c>
+      <c r="C272">
+        <v>-1.782744220690802E-05</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B273">
+        <v>22</v>
+      </c>
+      <c r="C273">
+        <v>-1.597134905750863E-05</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" s="1">
+        <v>45375</v>
+      </c>
+      <c r="B274">
+        <v>23</v>
+      </c>
+      <c r="C274">
+        <v>6.238037894945592E-05</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B275">
+        <v>0</v>
+      </c>
+      <c r="C275">
+        <v>1.142709061241476E-05</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B276">
+        <v>1</v>
+      </c>
+      <c r="C276">
+        <v>9.418606350664049E-05</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B277">
+        <v>2</v>
+      </c>
+      <c r="C277">
+        <v>9.418606350664049E-05</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B278">
+        <v>3</v>
+      </c>
+      <c r="C278">
+        <v>0.0001580494281370193</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B279">
+        <v>4</v>
+      </c>
+      <c r="C279">
+        <v>0.0001642224815441296</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B280">
+        <v>5</v>
+      </c>
+      <c r="C280">
+        <v>0.01928581669926643</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B281">
+        <v>6</v>
+      </c>
+      <c r="C281">
+        <v>0.1916841864585876</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B282">
+        <v>7</v>
+      </c>
+      <c r="C282">
+        <v>0.4153503179550171</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B283">
+        <v>8</v>
+      </c>
+      <c r="C283">
+        <v>0.5763387084007263</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B284">
+        <v>9</v>
+      </c>
+      <c r="C284">
+        <v>0.7156272530555725</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B285">
+        <v>10</v>
+      </c>
+      <c r="C285">
+        <v>0.7761845588684082</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B286">
+        <v>11</v>
+      </c>
+      <c r="C286">
+        <v>0.5766273736953735</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B287">
+        <v>12</v>
+      </c>
+      <c r="C287">
+        <v>0.4122636616230011</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B288">
+        <v>13</v>
+      </c>
+      <c r="C288">
+        <v>0.2919495403766632</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B289">
+        <v>14</v>
+      </c>
+      <c r="C289">
+        <v>0.2419763505458832</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B290">
+        <v>15</v>
+      </c>
+      <c r="C290">
+        <v>0.1722614914178848</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B291">
+        <v>16</v>
+      </c>
+      <c r="C291">
+        <v>0.06389946490526199</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B292">
+        <v>17</v>
+      </c>
+      <c r="C292">
+        <v>0.004250239115208387</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B293">
+        <v>18</v>
+      </c>
+      <c r="C293">
+        <v>-0.0001473521842854097</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B294">
+        <v>19</v>
+      </c>
+      <c r="C294">
+        <v>5.34988175786566E-05</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B295">
+        <v>20</v>
+      </c>
+      <c r="C295">
+        <v>4.373149567982182E-05</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B296">
+        <v>21</v>
+      </c>
+      <c r="C296">
+        <v>0.0001572371402289718</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B297">
+        <v>22</v>
+      </c>
+      <c r="C297">
+        <v>3.194398959749378E-05</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B298">
+        <v>23</v>
+      </c>
+      <c r="C298">
+        <v>1.994410376937594E-05</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B299">
+        <v>0</v>
+      </c>
+      <c r="C299">
+        <v>-4.157954754191451E-05</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B300">
+        <v>1</v>
+      </c>
+      <c r="C300">
+        <v>0.000105042832728941</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B301">
+        <v>2</v>
+      </c>
+      <c r="C301">
+        <v>1.775863165676128E-05</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B302">
+        <v>3</v>
+      </c>
+      <c r="C302">
+        <v>-0.001078446977771819</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B303">
+        <v>4</v>
+      </c>
+      <c r="C303">
+        <v>-0.0001005309823085554</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B304">
+        <v>5</v>
+      </c>
+      <c r="C304">
+        <v>0.0164415966719389</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B305">
+        <v>6</v>
+      </c>
+      <c r="C305">
+        <v>0.1358951181173325</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B306">
+        <v>7</v>
+      </c>
+      <c r="C306">
+        <v>0.2703559994697571</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B307">
+        <v>8</v>
+      </c>
+      <c r="C307">
+        <v>0.3883131742477417</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B308">
+        <v>9</v>
+      </c>
+      <c r="C308">
+        <v>0.4686412215232849</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B309">
+        <v>10</v>
+      </c>
+      <c r="C309">
+        <v>0.5812874436378479</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B310">
+        <v>11</v>
+      </c>
+      <c r="C310">
+        <v>0.6892375349998474</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B311">
+        <v>12</v>
+      </c>
+      <c r="C311">
+        <v>0.7055271863937378</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B312">
+        <v>13</v>
+      </c>
+      <c r="C312">
+        <v>0.6779288649559021</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B313">
+        <v>14</v>
+      </c>
+      <c r="C313">
+        <v>0.7308076024055481</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B314">
+        <v>15</v>
+      </c>
+      <c r="C314">
+        <v>0.5121392607688904</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B315">
+        <v>16</v>
+      </c>
+      <c r="C315">
+        <v>0.2280471324920654</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B316">
+        <v>17</v>
+      </c>
+      <c r="C316">
+        <v>0.01310483645647764</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B317">
+        <v>18</v>
+      </c>
+      <c r="C317">
+        <v>-1.083116444533516E-06</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B318">
+        <v>19</v>
+      </c>
+      <c r="C318">
+        <v>-8.483760211674962E-06</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B319">
+        <v>20</v>
+      </c>
+      <c r="C319">
+        <v>-8.483760211674962E-06</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B320">
+        <v>21</v>
+      </c>
+      <c r="C320">
+        <v>5.107896413392154E-06</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B321">
+        <v>22</v>
+      </c>
+      <c r="C321">
+        <v>6.932053224772972E-07</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B322">
+        <v>23</v>
+      </c>
+      <c r="C322">
+        <v>6.932053224772972E-07</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B323">
+        <v>0</v>
+      </c>
+      <c r="C323">
+        <v>1.884183984657284E-05</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B324">
+        <v>1</v>
+      </c>
+      <c r="C324">
+        <v>-9.750435310706962E-06</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B325">
+        <v>2</v>
+      </c>
+      <c r="C325">
+        <v>4.525428721535718E-06</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B326">
+        <v>3</v>
+      </c>
+      <c r="C326">
+        <v>8.984433407022152E-06</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B327">
+        <v>4</v>
+      </c>
+      <c r="C327">
+        <v>9.069528459804133E-06</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B328">
+        <v>5</v>
+      </c>
+      <c r="C328">
+        <v>0.03652810305356979</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B329">
+        <v>6</v>
+      </c>
+      <c r="C329">
+        <v>0.2537038326263428</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B330">
+        <v>7</v>
+      </c>
+      <c r="C330">
+        <v>0.8317334651947021</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B331">
+        <v>8</v>
+      </c>
+      <c r="C331">
+        <v>1.299033999443054</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B332">
+        <v>9</v>
+      </c>
+      <c r="C332">
+        <v>1.541839361190796</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B333">
+        <v>10</v>
+      </c>
+      <c r="C333">
+        <v>1.496038198471069</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B334">
+        <v>11</v>
+      </c>
+      <c r="C334">
+        <v>1.369745969772339</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B335">
+        <v>12</v>
+      </c>
+      <c r="C335">
+        <v>1.14079487323761</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B336">
+        <v>13</v>
+      </c>
+      <c r="C336">
+        <v>0.9363752603530884</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B337">
+        <v>14</v>
+      </c>
+      <c r="C337">
+        <v>0.7899347543716431</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B338">
+        <v>15</v>
+      </c>
+      <c r="C338">
+        <v>0.5122573375701904</v>
       </c>
     </row>
   </sheetData>

--- a/Transavia/Production/Results/Results_daily_Brasov.xlsx
+++ b/Transavia/Production/Results/Results_daily_Brasov.xlsx
@@ -377,101 +377,101 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>0.3462871313095093</v>
+        <v>0.6900388598442078</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B3">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>0.1212921366095543</v>
+        <v>0.6834138631820679</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B4">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>0.00228087930008769</v>
+        <v>0.6775997877120972</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B5">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C5">
-        <v>-2.062332350760698E-05</v>
+        <v>0.5564277768135071</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B6">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C6">
-        <v>-5.328219413058832E-05</v>
+        <v>0.417766809463501</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B7">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C7">
-        <v>-5.328219413058832E-05</v>
+        <v>0.2826716899871826</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B8">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C8">
-        <v>-2.306450551259331E-05</v>
+        <v>0.09807700663805008</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B9">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C9">
-        <v>-2.120841236319393E-05</v>
+        <v>0.004862012341618538</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B10">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C10">
-        <v>9.631042485125363E-05</v>
+        <v>-9.989198588300496E-06</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -479,10 +479,10 @@
         <v>45365</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C11">
-        <v>9.951743413694203E-05</v>
+        <v>-2.13275634450838E-05</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -490,10 +490,10 @@
         <v>45365</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C12">
-        <v>-4.157954754191451E-05</v>
+        <v>-2.13275634450838E-05</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -501,10 +501,10 @@
         <v>45365</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C13">
-        <v>-4.157954754191451E-05</v>
+        <v>-5.142610461916775E-05</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -512,10 +512,10 @@
         <v>45365</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C14">
-        <v>-4.157954754191451E-05</v>
+        <v>-2.062332350760698E-05</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -523,219 +523,219 @@
         <v>45365</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C15">
-        <v>-3.617296533775516E-05</v>
+        <v>8.343246918229852E-06</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>0.004788997117429972</v>
+        <v>9.951743413694203E-05</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B17">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>0.1269421279430389</v>
+        <v>9.951743413694203E-05</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B18">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>0.3262384235858917</v>
+        <v>9.951743413694203E-05</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B19">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C19">
-        <v>0.4086916744709015</v>
+        <v>9.951743413694203E-05</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B20">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C20">
-        <v>0.4958333075046539</v>
+        <v>-5.627856080536731E-05</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B21">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C21">
-        <v>0.5913734436035156</v>
+        <v>0.007207773625850677</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B22">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C22">
-        <v>0.5751310586929321</v>
+        <v>0.1423043459653854</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B23">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C23">
-        <v>0.4689515829086304</v>
+        <v>0.4075003564357758</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B24">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C24">
-        <v>0.4012089669704437</v>
+        <v>0.498702198266983</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B25">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C25">
-        <v>0.3200555443763733</v>
+        <v>0.6932440400123596</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B26">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C26">
-        <v>0.2446605563163757</v>
+        <v>0.8733647465705872</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B27">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C27">
-        <v>0.08674632012844086</v>
+        <v>0.9364885091781616</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B28">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C28">
-        <v>0.004905698820948601</v>
+        <v>0.7706615924835205</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B29">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C29">
-        <v>-5.142610461916775E-05</v>
+        <v>0.6220530867576599</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B30">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C30">
-        <v>-5.49714604858309E-05</v>
+        <v>0.545847475528717</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B31">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C31">
-        <v>-5.49714604858309E-05</v>
+        <v>0.3590489327907562</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B32">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C32">
-        <v>-5.323452205630019E-05</v>
+        <v>0.1516662985086441</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B33">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C33">
-        <v>-1.61176358233206E-05</v>
+        <v>0.004265077877789736</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B34">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C34">
-        <v>3.150088377879001E-05</v>
+        <v>-3.930691491405014E-06</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -743,10 +743,10 @@
         <v>45366</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C35">
-        <v>7.609662134200335E-05</v>
+        <v>6.942737400095211E-06</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -754,10 +754,10 @@
         <v>45366</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C36">
-        <v>-8.510579937137663E-05</v>
+        <v>-7.930599531391636E-05</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -765,10 +765,10 @@
         <v>45366</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C37">
-        <v>-8.510579937137663E-05</v>
+        <v>1.045876615535235E-05</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -776,10 +776,10 @@
         <v>45366</v>
       </c>
       <c r="B38">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C38">
-        <v>7.609662134200335E-05</v>
+        <v>5.88553075431264E-06</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -787,219 +787,219 @@
         <v>45366</v>
       </c>
       <c r="B39">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C39">
-        <v>8.150319627020508E-05</v>
+        <v>3.228758214390837E-05</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B40">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>0.007150235120207071</v>
+        <v>-1.233300372405211E-05</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B41">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C41">
-        <v>0.1388994008302689</v>
+        <v>-7.870501576690003E-06</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B42">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C42">
-        <v>0.406975269317627</v>
+        <v>-6.813734216848388E-05</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B43">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C43">
-        <v>0.5771895051002502</v>
+        <v>-6.813734216848388E-05</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B44">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C44">
-        <v>0.745314359664917</v>
+        <v>-6.273075268836692E-05</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B45">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C45">
-        <v>0.7975509166717529</v>
+        <v>0.02310599945485592</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B46">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C46">
-        <v>0.9438585042953491</v>
+        <v>0.4599726498126984</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B47">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C47">
-        <v>0.77045077085495</v>
+        <v>1.118109345436096</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B48">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C48">
-        <v>0.6710867881774902</v>
+        <v>2.043617725372314</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B49">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C49">
-        <v>0.6483891010284424</v>
+        <v>2.48880934715271</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B50">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C50">
-        <v>0.4720459878444672</v>
+        <v>2.689679622650146</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B51">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C51">
-        <v>0.1868816614151001</v>
+        <v>2.678720951080322</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B52">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C52">
-        <v>0.004198730923235416</v>
+        <v>2.192090749740601</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B53">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C53">
-        <v>-5.647083980875323E-06</v>
+        <v>1.656196355819702</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B54">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C54">
-        <v>-9.209661584463902E-06</v>
+        <v>1.117886543273926</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B55">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C55">
-        <v>-3.01865179608285E-06</v>
+        <v>0.6409172415733337</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B56">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C56">
-        <v>-3.01865179608285E-06</v>
+        <v>0.236345499753952</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B57">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C57">
-        <v>1.313374650635524E-05</v>
+        <v>0.00661555677652359</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B58">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C58">
-        <v>1.207653895107796E-05</v>
+        <v>3.917844514944591E-05</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1007,10 +1007,10 @@
         <v>45367</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C59">
-        <v>-5.529799409487168E-07</v>
+        <v>6.172985740704462E-05</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1018,10 +1018,10 @@
         <v>45367</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C60">
-        <v>-3.073140760534443E-06</v>
+        <v>5.805494947708212E-05</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1029,10 +1029,10 @@
         <v>45367</v>
       </c>
       <c r="B61">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C61">
-        <v>-2.368168497923762E-05</v>
+        <v>5.671694816555828E-05</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1040,10 +1040,10 @@
         <v>45367</v>
       </c>
       <c r="B62">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C62">
-        <v>-1.659256668062881E-05</v>
+        <v>4.261676440364681E-05</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1051,219 +1051,219 @@
         <v>45367</v>
       </c>
       <c r="B63">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C63">
-        <v>2.264382601424586E-06</v>
+        <v>3.299668605905026E-05</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B64">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>0.0216828491538763</v>
+        <v>3.063052281504497E-05</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B65">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C65">
-        <v>0.3553696274757385</v>
+        <v>3.098731394857168E-05</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B66">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C66">
-        <v>1.052665948867798</v>
+        <v>3.938703594030812E-05</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B67">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C67">
-        <v>1.873238086700439</v>
+        <v>4.535003972705454E-05</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B68">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C68">
-        <v>2.444881677627563</v>
+        <v>5.607815910479985E-05</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B69">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C69">
-        <v>2.659180164337158</v>
+        <v>0.01652116887271404</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B70">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C70">
-        <v>2.551270723342896</v>
+        <v>0.256626307964325</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B71">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C71">
-        <v>1.971879839897156</v>
+        <v>0.7721355557441711</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B72">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C72">
-        <v>1.405691623687744</v>
+        <v>1.263072490692139</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B73">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C73">
-        <v>1.027573704719543</v>
+        <v>1.659972548484802</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B74">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C74">
-        <v>0.6059806942939758</v>
+        <v>1.855509638786316</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B75">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C75">
-        <v>0.2020996063947678</v>
+        <v>1.852843403816223</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B76">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C76">
-        <v>0.006635216064751148</v>
+        <v>1.485959529876709</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B77">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C77">
-        <v>3.132584242848679E-05</v>
+        <v>1.043988823890686</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B78">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C78">
-        <v>3.708470831043087E-05</v>
+        <v>0.7643252611160278</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B79">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C79">
-        <v>3.708470831043087E-05</v>
+        <v>0.3907662332057953</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B80">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C80">
-        <v>3.890108564519323E-05</v>
+        <v>0.1330495029687881</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B81">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C81">
-        <v>-7.402702613035217E-05</v>
+        <v>0.004217827692627907</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="B82">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C82">
-        <v>-7.402702613035217E-05</v>
+        <v>-6.456438131863251E-05</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1271,10 +1271,10 @@
         <v>45368</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C83">
-        <v>5.067154052085243E-05</v>
+        <v>-6.630133430007845E-05</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1282,10 +1282,10 @@
         <v>45368</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C84">
-        <v>2.469492937962059E-05</v>
+        <v>-6.630133430007845E-05</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1293,10 +1293,10 @@
         <v>45368</v>
       </c>
       <c r="B85">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C85">
-        <v>2.739935189310927E-05</v>
+        <v>-5.806839180877432E-05</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1304,10 +1304,10 @@
         <v>45368</v>
       </c>
       <c r="B86">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C86">
-        <v>5.420207162387669E-05</v>
+        <v>-5.921638512518257E-05</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1315,219 +1315,219 @@
         <v>45368</v>
       </c>
       <c r="B87">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C87">
-        <v>7.054633897496387E-05</v>
+        <v>2.743069308053236E-05</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B88">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C88">
-        <v>0.01362353097647429</v>
+        <v>2.342692096135579E-05</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B89">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C89">
-        <v>0.247588723897934</v>
+        <v>2.227892764494754E-05</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B90">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C90">
-        <v>0.5907191634178162</v>
+        <v>6.057582140783779E-05</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B91">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C91">
-        <v>1.121100544929504</v>
+        <v>6.582398782484233E-05</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B92">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C92">
-        <v>1.54240345954895</v>
+        <v>3.912923784810118E-05</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B93">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C93">
-        <v>1.607925653457642</v>
+        <v>0.01679984107613564</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B94">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C94">
-        <v>1.566905856132507</v>
+        <v>0.255416214466095</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B95">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C95">
-        <v>1.315888285636902</v>
+        <v>0.6383433938026428</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B96">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C96">
-        <v>1.021163105964661</v>
+        <v>1.021878242492676</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B97">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C97">
-        <v>0.8901532292366028</v>
+        <v>1.234381437301636</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B98">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C98">
-        <v>0.482256680727005</v>
+        <v>1.361494660377502</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B99">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C99">
-        <v>0.1842759400606155</v>
+        <v>1.355069518089294</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B100">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C100">
-        <v>0.006581722293049097</v>
+        <v>1.367576360702515</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B101">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C101">
-        <v>2.349791884626029E-06</v>
+        <v>1.298324942588806</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B102">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C102">
-        <v>2.349791884626029E-06</v>
+        <v>1.016632437705994</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B103">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C103">
-        <v>-1.782744220690802E-05</v>
+        <v>0.6627325415611267</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B104">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C104">
-        <v>-1.782744220690802E-05</v>
+        <v>0.2433568835258484</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B105">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C105">
-        <v>-1.60905001393985E-05</v>
+        <v>0.006780156400054693</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="B106">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C106">
-        <v>0.0001968821452464908</v>
+        <v>-0.0001740867010084912</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1535,10 +1535,10 @@
         <v>45369</v>
       </c>
       <c r="B107">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C107">
-        <v>0.0007001749472692609</v>
+        <v>-0.0001740867010084912</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1546,10 +1546,10 @@
         <v>45369</v>
       </c>
       <c r="B108">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C108">
-        <v>6.866081093903631E-05</v>
+        <v>-6.845453754067421E-05</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1557,10 +1557,10 @@
         <v>45369</v>
       </c>
       <c r="B109">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C109">
-        <v>6.759543612133712E-05</v>
+        <v>2.381582817179151E-05</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1568,10 +1568,10 @@
         <v>45369</v>
       </c>
       <c r="B110">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C110">
-        <v>4.934438038617373E-05</v>
+        <v>-5.92819633311592E-05</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1579,219 +1579,219 @@
         <v>45369</v>
       </c>
       <c r="B111">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C111">
-        <v>5.697065716958605E-05</v>
+        <v>4.375168282422237E-05</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B112">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C112">
-        <v>0.01676288060843945</v>
+        <v>6.403650331776589E-05</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B113">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C113">
-        <v>0.2508996427059174</v>
+        <v>6.403650331776589E-05</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B114">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C114">
-        <v>0.6301684379577637</v>
+        <v>7.554353214800358E-05</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B115">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C115">
-        <v>1.054024577140808</v>
+        <v>5.563680315390229E-05</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B116">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C116">
-        <v>1.305312395095825</v>
+        <v>6.068659422453493E-05</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B117">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C117">
-        <v>1.494902729988098</v>
+        <v>0.02894147299230099</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B118">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C118">
-        <v>1.477061748504639</v>
+        <v>0.327305793762207</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B119">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C119">
-        <v>1.267867803573608</v>
+        <v>0.8420539498329163</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B120">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C120">
-        <v>1.035472989082336</v>
+        <v>1.453743815422058</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B121">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C121">
-        <v>0.7650110721588135</v>
+        <v>1.990742087364197</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B122">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C122">
-        <v>0.4113827645778656</v>
+        <v>2.171380996704102</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B123">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C123">
-        <v>0.1410350501537323</v>
+        <v>2.01686954498291</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B124">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C124">
-        <v>0.00500219501554966</v>
+        <v>1.551160573959351</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B125">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C125">
-        <v>-1.058231759998307E-06</v>
+        <v>1.036835193634033</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B126">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C126">
-        <v>-4.499311035033315E-05</v>
+        <v>0.8155840039253235</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B127">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C127">
-        <v>-5.633146065520123E-05</v>
+        <v>0.4470089972019196</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B128">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C128">
-        <v>-5.633146065520123E-05</v>
+        <v>0.1705619692802429</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B129">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C129">
-        <v>-5.806839180877432E-05</v>
+        <v>0.005175916943699121</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B130">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C130">
-        <v>-5.806839180877432E-05</v>
+        <v>0.0001822886260924861</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1799,10 +1799,10 @@
         <v>45370</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C131">
-        <v>5.301041892380454E-05</v>
+        <v>0.0001822886260924861</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -1810,10 +1810,10 @@
         <v>45370</v>
       </c>
       <c r="B132">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C132">
-        <v>8.13664955785498E-05</v>
+        <v>0.0002008710289373994</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -1821,10 +1821,10 @@
         <v>45370</v>
       </c>
       <c r="B133">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C133">
-        <v>8.70308795128949E-05</v>
+        <v>0.0003353728097863495</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1832,10 +1832,10 @@
         <v>45370</v>
       </c>
       <c r="B134">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C134">
-        <v>5.563680315390229E-05</v>
+        <v>-8.214348054025322E-05</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -1843,219 +1843,219 @@
         <v>45370</v>
       </c>
       <c r="B135">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C135">
-        <v>5.402220267569646E-05</v>
+        <v>-8.214348054025322E-05</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B136">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C136">
-        <v>0.02886388450860977</v>
+        <v>-5.535670425160788E-05</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B137">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C137">
-        <v>0.3355329036712646</v>
+        <v>-5.535670425160788E-05</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B138">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C138">
-        <v>0.8427886962890625</v>
+        <v>0.0001244574377778918</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B139">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C139">
-        <v>1.391023755073547</v>
+        <v>0.0002230158861493692</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B140">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C140">
-        <v>1.894558072090149</v>
+        <v>0.0001899555645650253</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B141">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C141">
-        <v>2.143621206283569</v>
+        <v>0.01343043800443411</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B142">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C142">
-        <v>2.259795665740967</v>
+        <v>0.1738144010305405</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B143">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C143">
-        <v>2.047529697418213</v>
+        <v>0.3803802132606506</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B144">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C144">
-        <v>1.648206472396851</v>
+        <v>0.5235171914100647</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B145">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C145">
-        <v>1.130997657775879</v>
+        <v>0.7016592621803284</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B146">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C146">
-        <v>0.6158397793769836</v>
+        <v>0.8485283255577087</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B147">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C147">
-        <v>0.2195809632539749</v>
+        <v>0.8901887536048889</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B148">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C148">
-        <v>0.009048543870449066</v>
+        <v>0.8275970220565796</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B149">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C149">
-        <v>-0.000253087462624535</v>
+        <v>0.6783154010772705</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B150">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C150">
-        <v>-6.456438131863251E-05</v>
+        <v>0.4833597838878632</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B151">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C151">
-        <v>-6.456438131863251E-05</v>
+        <v>0.3068217635154724</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B152">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C152">
-        <v>-6.456438131863251E-05</v>
+        <v>0.1228620037436485</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B153">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C153">
-        <v>-5.633146065520123E-05</v>
+        <v>0.007124454714357853</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B154">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C154">
-        <v>-4.499311035033315E-05</v>
+        <v>-5.621232412522659E-05</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2063,10 +2063,10 @@
         <v>45371</v>
       </c>
       <c r="B155">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C155">
-        <v>0.0001178988095489331</v>
+        <v>-5.633146065520123E-05</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2074,10 +2074,10 @@
         <v>45371</v>
       </c>
       <c r="B156">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C156">
-        <v>9.693195170257241E-05</v>
+        <v>-5.621232412522659E-05</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2085,10 +2085,10 @@
         <v>45371</v>
       </c>
       <c r="B157">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C157">
-        <v>7.571515016024932E-05</v>
+        <v>-4.499311035033315E-05</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2096,10 +2096,10 @@
         <v>45371</v>
       </c>
       <c r="B158">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C158">
-        <v>0.0001900260540423915</v>
+        <v>-1.597134905750863E-05</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2107,219 +2107,219 @@
         <v>45371</v>
       </c>
       <c r="B159">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C159">
-        <v>0.000162602897034958</v>
+        <v>-1.597134905750863E-05</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B160">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C160">
-        <v>0.0135516244918108</v>
+        <v>3.040090996364597E-05</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B161">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C161">
-        <v>0.1738144010305405</v>
+        <v>2.342692096135579E-05</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B162">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C162">
-        <v>0.3865506649017334</v>
+        <v>2.342692096135579E-05</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B163">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C163">
-        <v>0.5309739112854004</v>
+        <v>-3.375794221938122E-06</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B164">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C164">
-        <v>0.7290359139442444</v>
+        <v>3.057044159504585E-05</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B165">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C165">
-        <v>0.8743652105331421</v>
+        <v>0.01960171386599541</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B166">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C166">
-        <v>0.8507404923439026</v>
+        <v>0.2227420508861542</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B167">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C167">
-        <v>0.7217038869857788</v>
+        <v>0.4847619831562042</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B168">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C168">
-        <v>0.5642326474189758</v>
+        <v>0.7224659323692322</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B169">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C169">
-        <v>0.4456178247928619</v>
+        <v>0.9781689643859863</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B170">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C170">
-        <v>0.3054499924182892</v>
+        <v>1.088040351867676</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B171">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C171">
-        <v>0.1225156113505363</v>
+        <v>1.075207114219666</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B172">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C172">
-        <v>0.006888863630592823</v>
+        <v>0.9786978960037231</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B173">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C173">
-        <v>0.000240038221818395</v>
+        <v>0.8944869041442871</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B174">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C174">
-        <v>-8.214348054025322E-05</v>
+        <v>0.634698212146759</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B175">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C175">
-        <v>-0.000253087462624535</v>
+        <v>0.3969316482543945</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B176">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C176">
-        <v>-0.000183443640707992</v>
+        <v>0.1422374397516251</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B177">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C177">
-        <v>-0.0001688385382294655</v>
+        <v>0.006243776064366102</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="1">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B178">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C178">
-        <v>-4.794305641553365E-05</v>
+        <v>-0.0002319939667358994</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2327,10 +2327,10 @@
         <v>45372</v>
       </c>
       <c r="B179">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C179">
-        <v>-0.0001156272046500817</v>
+        <v>-5.883106950932415E-06</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2338,10 +2338,10 @@
         <v>45372</v>
       </c>
       <c r="B180">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C180">
-        <v>8.70308795128949E-05</v>
+        <v>-5.964379670331255E-05</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2349,10 +2349,10 @@
         <v>45372</v>
       </c>
       <c r="B181">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C181">
-        <v>8.70308795128949E-05</v>
+        <v>-4.794305641553365E-05</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2360,10 +2360,10 @@
         <v>45372</v>
       </c>
       <c r="B182">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C182">
-        <v>8.70308795128949E-05</v>
+        <v>3.132584242848679E-05</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2371,219 +2371,219 @@
         <v>45372</v>
       </c>
       <c r="B183">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C183">
-        <v>9.320388926425949E-05</v>
+        <v>1.962509850272909E-05</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B184">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C184">
-        <v>0.02402918413281441</v>
+        <v>5.837207936565392E-05</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B185">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C185">
-        <v>0.2920271158218384</v>
+        <v>6.403650331776589E-05</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B186">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C186">
-        <v>0.7584142088890076</v>
+        <v>5.563680315390229E-05</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B187">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C187">
-        <v>1.177489280700684</v>
+        <v>5.962423165328801E-05</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B188">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C188">
-        <v>1.487966060638428</v>
+        <v>6.944309279788285E-05</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B189">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C189">
-        <v>1.649931788444519</v>
+        <v>0.02240424416959286</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B190">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C190">
-        <v>1.560837268829346</v>
+        <v>0.2512876987457275</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B191">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C191">
-        <v>1.51218569278717</v>
+        <v>0.6795903444290161</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B192">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C192">
-        <v>1.253047466278076</v>
+        <v>1.108516097068787</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B193">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C193">
-        <v>0.9633248448371887</v>
+        <v>1.34275484085083</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B194">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C194">
-        <v>0.5037682056427002</v>
+        <v>1.304953455924988</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B195">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C195">
-        <v>0.1765177696943283</v>
+        <v>1.507637023925781</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B196">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C196">
-        <v>0.006311993114650249</v>
+        <v>1.560709953308105</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B197">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C197">
-        <v>0.0001559782103868201</v>
+        <v>1.389909029006958</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B198">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C198">
-        <v>-0.000183443640707992</v>
+        <v>1.039371728897095</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B199">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C199">
-        <v>-0.0001740867010084912</v>
+        <v>0.5900868773460388</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B200">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C200">
-        <v>-0.0001776492863427848</v>
+        <v>0.1935389786958694</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B201">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C201">
-        <v>-0.0001776492863427848</v>
+        <v>0.008603070862591267</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="1">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B202">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C202">
-        <v>-0.000157137808855623</v>
+        <v>0.0002351575676584616</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2591,10 +2591,10 @@
         <v>45373</v>
       </c>
       <c r="B203">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C203">
-        <v>1.687500480329618E-05</v>
+        <v>-0.000157137808855623</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2602,10 +2602,10 @@
         <v>45373</v>
       </c>
       <c r="B204">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C204">
-        <v>1.091198373615043E-05</v>
+        <v>-4.794305641553365E-05</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2613,10 +2613,10 @@
         <v>45373</v>
       </c>
       <c r="B205">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C205">
-        <v>1.091198373615043E-05</v>
+        <v>5.349245384422829E-06</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2624,10 +2624,10 @@
         <v>45373</v>
       </c>
       <c r="B206">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C206">
-        <v>-0.0001247410546056926</v>
+        <v>-1.60905001393985E-05</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2635,219 +2635,219 @@
         <v>45373</v>
       </c>
       <c r="B207">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C207">
-        <v>-0.0001249716442544013</v>
+        <v>1.48314156831475E-05</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B208">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C208">
-        <v>0.0220036506652832</v>
+        <v>0.0001180292238132097</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B209">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C209">
-        <v>0.2517768740653992</v>
+        <v>0.0006792081403546035</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B210">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C210">
-        <v>0.6345142126083374</v>
+        <v>0.0006792081403546035</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B211">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C211">
-        <v>1.103893876075745</v>
+        <v>0.000673971080686897</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B212">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C212">
-        <v>1.462003707885742</v>
+        <v>0.0006793776410631835</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B213">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C213">
-        <v>1.656556367874146</v>
+        <v>0.01685791835188866</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B214">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C214">
-        <v>1.598663806915283</v>
+        <v>0.1890328973531723</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B215">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C215">
-        <v>1.320256352424622</v>
+        <v>0.399861216545105</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B216">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C216">
-        <v>0.9448376297950745</v>
+        <v>0.60797119140625</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B217">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C217">
-        <v>0.4786777794361115</v>
+        <v>0.8586539030075073</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B218">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C218">
-        <v>0.3065889477729797</v>
+        <v>0.9748957753181458</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B219">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C219">
-        <v>0.08805453032255173</v>
+        <v>1.061515688896179</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B220">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C220">
-        <v>0.004894118756055832</v>
+        <v>1.016212344169617</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B221">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C221">
-        <v>0.0001467656984459609</v>
+        <v>0.9546137452125549</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B222">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C222">
-        <v>-1.404214708600193E-05</v>
+        <v>0.7693268060684204</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B223">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C223">
-        <v>0.0001549986045574769</v>
+        <v>0.482276052236557</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B224">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C224">
-        <v>5.966391836409457E-05</v>
+        <v>0.236163392663002</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B225">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C225">
-        <v>2.049684553639963E-05</v>
+        <v>0.01359433587640524</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="1">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B226">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C226">
-        <v>1.914435870276066E-06</v>
+        <v>-0.0001385508803650737</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -2855,10 +2855,10 @@
         <v>45374</v>
       </c>
       <c r="B227">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C227">
-        <v>0.0001389960816595703</v>
+        <v>3.04827972286148E-05</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -2866,10 +2866,10 @@
         <v>45374</v>
       </c>
       <c r="B228">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C228">
-        <v>0.000152523978613317</v>
+        <v>6.474714609794319E-05</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -2877,10 +2877,10 @@
         <v>45374</v>
       </c>
       <c r="B229">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C229">
-        <v>-2.786658842524048E-05</v>
+        <v>4.105113839614205E-05</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -2888,10 +2888,10 @@
         <v>45374</v>
       </c>
       <c r="B230">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C230">
-        <v>-0.001003675977699459</v>
+        <v>4.241712667862885E-05</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -2899,219 +2899,219 @@
         <v>45374</v>
       </c>
       <c r="B231">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C231">
-        <v>0.0001003591023618355</v>
+        <v>-4.73476065963041E-05</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B232">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C232">
-        <v>0.01351221837103367</v>
+        <v>7.181586988735944E-05</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B233">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C233">
-        <v>0.166287750005722</v>
+        <v>-3.375794221938122E-06</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B234">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C234">
-        <v>0.3530118763446808</v>
+        <v>0.0006471683154813945</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B235">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C235">
-        <v>0.5259039998054504</v>
+        <v>5.93770200794097E-05</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B236">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C236">
-        <v>0.7240838408470154</v>
+        <v>9.139604662777856E-05</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B237">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C237">
-        <v>0.9647195935249329</v>
+        <v>0.02364592254161835</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B238">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C238">
-        <v>1.234571933746338</v>
+        <v>0.2439217269420624</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B239">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C239">
-        <v>1.507274270057678</v>
+        <v>0.4961219727993011</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B240">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C240">
-        <v>1.482616901397705</v>
+        <v>0.6239544749259949</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B241">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C241">
-        <v>1.04169499874115</v>
+        <v>0.9092035889625549</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B242">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C242">
-        <v>0.619111180305481</v>
+        <v>1.005748271942139</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B243">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C243">
-        <v>0.222661942243576</v>
+        <v>1.069584131240845</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B244">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C244">
-        <v>0.01005130633711815</v>
+        <v>0.9842001795768738</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B245">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C245">
-        <v>-1.058231759998307E-06</v>
+        <v>0.8199143409729004</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B246">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C246">
-        <v>-2.227504592156038E-05</v>
+        <v>0.5616517066955566</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B247">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C247">
-        <v>0.0001549986045574769</v>
+        <v>0.3435434401035309</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B248">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C248">
-        <v>0.0001549986045574769</v>
+        <v>0.1435849517583847</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B249">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C249">
-        <v>2.049684553639963E-05</v>
+        <v>0.009253612719476223</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="1">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B250">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C250">
-        <v>3.718104198924266E-05</v>
+        <v>0.0001572371402289718</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3119,10 +3119,10 @@
         <v>45375</v>
       </c>
       <c r="B251">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C251">
-        <v>-2.964539999084082E-05</v>
+        <v>1.068204142029572E-06</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3130,10 +3130,10 @@
         <v>45375</v>
       </c>
       <c r="B252">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C252">
-        <v>0.0001370825339108706</v>
+        <v>8.343246918229852E-06</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3141,10 +3141,10 @@
         <v>45375</v>
       </c>
       <c r="B253">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C253">
-        <v>0.0001370825339108706</v>
+        <v>7.066793477861211E-05</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3152,10 +3152,10 @@
         <v>45375</v>
       </c>
       <c r="B254">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C254">
-        <v>7.321919110836461E-05</v>
+        <v>-4.878045001532882E-05</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3163,219 +3163,219 @@
         <v>45375</v>
       </c>
       <c r="B255">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C255">
-        <v>7.862578058848158E-05</v>
+        <v>1.664977571635973E-05</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B256">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C256">
-        <v>0.01953908987343311</v>
+        <v>-1.233300372405211E-05</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B257">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C257">
-        <v>0.1868827491998672</v>
+        <v>-7.612170884385705E-05</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B258">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C258">
-        <v>0.412116527557373</v>
+        <v>-7.612170884385705E-05</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B259">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C259">
-        <v>0.689710259437561</v>
+        <v>-7.612170884385705E-05</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B260">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C260">
-        <v>1.023193836212158</v>
+        <v>-7.071511936374009E-05</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B261">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C261">
-        <v>1.296039462089539</v>
+        <v>0.06229455396533012</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B262">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C262">
-        <v>1.619257569313049</v>
+        <v>0.5876818895339966</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B263">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C263">
-        <v>1.748269200325012</v>
+        <v>1.41024923324585</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B264">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C264">
-        <v>1.644418835639954</v>
+        <v>2.18461012840271</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B265">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C265">
-        <v>1.300042986869812</v>
+        <v>2.641215562820435</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B266">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C266">
-        <v>0.8932664394378662</v>
+        <v>2.951071262359619</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B267">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C267">
-        <v>0.2969687283039093</v>
+        <v>3.003609180450439</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B268">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C268">
-        <v>0.01606787741184235</v>
+        <v>2.938185930252075</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B269">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C269">
-        <v>-5.883106950932415E-06</v>
+        <v>2.477796077728271</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B270">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C270">
-        <v>-5.633146065520123E-05</v>
+        <v>1.538974761962891</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B271">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C271">
-        <v>-5.806839180877432E-05</v>
+        <v>0.777953565120697</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B272">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C272">
-        <v>-1.782744220690802E-05</v>
+        <v>0.2504027485847473</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B273">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C273">
-        <v>-1.597134905750863E-05</v>
+        <v>0.01321393251419067</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" s="1">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B274">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C274">
-        <v>6.238037894945592E-05</v>
+        <v>-1.245510338776512E-05</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3383,10 +3383,10 @@
         <v>45376</v>
       </c>
       <c r="B275">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C275">
-        <v>1.142709061241476E-05</v>
+        <v>5.439308665700082E-07</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3394,10 +3394,10 @@
         <v>45376</v>
       </c>
       <c r="B276">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C276">
-        <v>9.418606350664049E-05</v>
+        <v>5.792091997136595E-06</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3405,10 +3405,10 @@
         <v>45376</v>
       </c>
       <c r="B277">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C277">
-        <v>9.418606350664049E-05</v>
+        <v>-3.01865179608285E-06</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3416,10 +3416,10 @@
         <v>45376</v>
       </c>
       <c r="B278">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C278">
-        <v>0.0001580494281370193</v>
+        <v>-8.414559124503285E-05</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3427,219 +3427,219 @@
         <v>45376</v>
       </c>
       <c r="B279">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C279">
-        <v>0.0001642224815441296</v>
+        <v>2.287814641022123E-05</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B280">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C280">
-        <v>0.01928581669926643</v>
+        <v>-1.779674494173378E-05</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B281">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C281">
-        <v>0.1916841864585876</v>
+        <v>-1.166711172118085E-05</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B282">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C282">
-        <v>0.4153503179550171</v>
+        <v>-1.166711172118085E-05</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B283">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C283">
-        <v>0.5763387084007263</v>
+        <v>-1.166711172118085E-05</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B284">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C284">
-        <v>0.7156272530555725</v>
+        <v>-6.260517693590373E-06</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B285">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C285">
-        <v>0.7761845588684082</v>
+        <v>0.06206759065389633</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B286">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C286">
-        <v>0.5766273736953735</v>
+        <v>0.5350202322006226</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B287">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C287">
-        <v>0.4122636616230011</v>
+        <v>1.312891840934753</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B288">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C288">
-        <v>0.2919495403766632</v>
+        <v>2.085433006286621</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B289">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C289">
-        <v>0.2419763505458832</v>
+        <v>2.563024520874023</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B290">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C290">
-        <v>0.1722614914178848</v>
+        <v>2.899869203567505</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B291">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C291">
-        <v>0.06389946490526199</v>
+        <v>2.948814392089844</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B292">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C292">
-        <v>0.004250239115208387</v>
+        <v>2.894181251525879</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B293">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C293">
-        <v>-0.0001473521842854097</v>
+        <v>2.551420927047729</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B294">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C294">
-        <v>5.34988175786566E-05</v>
+        <v>1.975640177726746</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B295">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C295">
-        <v>4.373149567982182E-05</v>
+        <v>1.151346325874329</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B296">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C296">
-        <v>0.0001572371402289718</v>
+        <v>0.4002056419849396</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B297">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C297">
-        <v>3.194398959749378E-05</v>
+        <v>0.0300156157463789</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="1">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B298">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C298">
-        <v>1.994410376937594E-05</v>
+        <v>-4.292277662898414E-05</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -3647,10 +3647,10 @@
         <v>45377</v>
       </c>
       <c r="B299">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C299">
-        <v>-4.157954754191451E-05</v>
+        <v>-4.796927169081755E-05</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -3658,10 +3658,10 @@
         <v>45377</v>
       </c>
       <c r="B300">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C300">
-        <v>0.000105042832728941</v>
+        <v>-4.796927169081755E-05</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -3669,10 +3669,10 @@
         <v>45377</v>
       </c>
       <c r="B301">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C301">
-        <v>1.775863165676128E-05</v>
+        <v>-5.32482226844877E-05</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -3680,10 +3680,10 @@
         <v>45377</v>
       </c>
       <c r="B302">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C302">
-        <v>-0.001078446977771819</v>
+        <v>-5.32482226844877E-05</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -3691,219 +3691,219 @@
         <v>45377</v>
       </c>
       <c r="B303">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C303">
-        <v>-0.0001005309823085554</v>
+        <v>-8.972022442321759E-06</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B304">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C304">
-        <v>0.0164415966719389</v>
+        <v>-4.251438667779439E-07</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B305">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C305">
-        <v>0.1358951181173325</v>
+        <v>-4.251438667779439E-07</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B306">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C306">
-        <v>0.2703559994697571</v>
+        <v>-4.251438667779439E-07</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B307">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C307">
-        <v>0.3883131742477417</v>
+        <v>-4.251438667779439E-07</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B308">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C308">
-        <v>0.4686412215232849</v>
+        <v>4.981440270057647E-06</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B309">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C309">
-        <v>0.5812874436378479</v>
+        <v>0.05773201957345009</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B310">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C310">
-        <v>0.6892375349998474</v>
+        <v>0.4563165903091431</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B311">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C311">
-        <v>0.7055271863937378</v>
+        <v>1.214057564735413</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B312">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C312">
-        <v>0.6779288649559021</v>
+        <v>1.942624568939209</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B313">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C313">
-        <v>0.7308076024055481</v>
+        <v>2.63465690612793</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B314">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C314">
-        <v>0.5121392607688904</v>
+        <v>2.963499784469604</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B315">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C315">
-        <v>0.2280471324920654</v>
+        <v>3.004425048828125</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B316">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C316">
-        <v>0.01310483645647764</v>
+        <v>2.945715188980103</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B317">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C317">
-        <v>-1.083116444533516E-06</v>
+        <v>2.573112487792969</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B318">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C318">
-        <v>-8.483760211674962E-06</v>
+        <v>1.770735502243042</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B319">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C319">
-        <v>-8.483760211674962E-06</v>
+        <v>0.9594783782958984</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B320">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C320">
-        <v>5.107896413392154E-06</v>
+        <v>0.3166378736495972</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B321">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C321">
-        <v>6.932053224772972E-07</v>
+        <v>0.01961992681026459</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" s="1">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B322">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C322">
-        <v>6.932053224772972E-07</v>
+        <v>-6.845453754067421E-05</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -3911,10 +3911,10 @@
         <v>45378</v>
       </c>
       <c r="B323">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C323">
-        <v>1.884183984657284E-05</v>
+        <v>1.437693572370335E-05</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -3922,10 +3922,10 @@
         <v>45378</v>
       </c>
       <c r="B324">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C324">
-        <v>-9.750435310706962E-06</v>
+        <v>1.437693572370335E-05</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -3933,10 +3933,10 @@
         <v>45378</v>
       </c>
       <c r="B325">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C325">
-        <v>4.525428721535718E-06</v>
+        <v>2.408326690783724E-05</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -3944,10 +3944,10 @@
         <v>45378</v>
       </c>
       <c r="B326">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C326">
-        <v>8.984433407022152E-06</v>
+        <v>2.408326690783724E-05</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -3955,131 +3955,131 @@
         <v>45378</v>
       </c>
       <c r="B327">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C327">
-        <v>9.069528459804133E-06</v>
+        <v>2.408326690783724E-05</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" s="1">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="B328">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C328">
-        <v>0.03652810305356979</v>
+        <v>5.480953768710606E-05</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" s="1">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="B329">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C329">
-        <v>0.2537038326263428</v>
+        <v>7.532100426033139E-05</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" s="1">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="B330">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C330">
-        <v>0.8317334651947021</v>
+        <v>7.752473175060004E-05</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" s="1">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="B331">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C331">
-        <v>1.299033999443054</v>
+        <v>6.866495823487639E-05</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" s="1">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="B332">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C332">
-        <v>1.541839361190796</v>
+        <v>7.855701551306993E-05</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" s="1">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="B333">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C333">
-        <v>1.496038198471069</v>
+        <v>0.05354833975434303</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" s="1">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="B334">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C334">
-        <v>1.369745969772339</v>
+        <v>0.4382995963096619</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" s="1">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="B335">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C335">
-        <v>1.14079487323761</v>
+        <v>0.9683018922805786</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" s="1">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="B336">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C336">
-        <v>0.9363752603530884</v>
+        <v>1.593335628509521</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" s="1">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="B337">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C337">
-        <v>0.7899347543716431</v>
+        <v>1.929609060287476</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" s="1">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="B338">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C338">
-        <v>0.5122573375701904</v>
+        <v>2.036375761032104</v>
       </c>
     </row>
   </sheetData>

--- a/Transavia/Production/Results/Results_daily_Brasov.xlsx
+++ b/Transavia/Production/Results/Results_daily_Brasov.xlsx
@@ -377,1861 +377,1861 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>45371</v>
+        <v>45412</v>
       </c>
       <c r="B2">
         <v>16</v>
       </c>
       <c r="C2">
-        <v>0.164060041308403</v>
+        <v>0.0001365024654660374</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>45371</v>
+        <v>45412</v>
       </c>
       <c r="B3">
         <v>17</v>
       </c>
       <c r="C3">
-        <v>0.006507038604468107</v>
+        <v>2.532359940232709E-05</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>45371</v>
+        <v>45412</v>
       </c>
       <c r="B4">
         <v>18</v>
       </c>
       <c r="C4">
-        <v>-1.983604124689009E-05</v>
+        <v>0.8850684762001038</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>45371</v>
+        <v>45412</v>
       </c>
       <c r="B5">
         <v>19</v>
       </c>
       <c r="C5">
-        <v>-5.311537097441033E-05</v>
+        <v>0.1974881440401077</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>45371</v>
+        <v>45412</v>
       </c>
       <c r="B6">
         <v>20</v>
       </c>
       <c r="C6">
-        <v>-1.61176358233206E-05</v>
+        <v>0.006366330198943615</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>45371</v>
+        <v>45412</v>
       </c>
       <c r="B7">
         <v>21</v>
       </c>
       <c r="C7">
-        <v>-3.038090653717518E-06</v>
+        <v>-0.0003751278563868254</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>45371</v>
+        <v>45412</v>
       </c>
       <c r="B8">
         <v>22</v>
       </c>
       <c r="C8">
-        <v>0.0001665940217208117</v>
+        <v>0.0003063718031626195</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>45371</v>
+        <v>45412</v>
       </c>
       <c r="B9">
         <v>23</v>
       </c>
       <c r="C9">
-        <v>3.150088377879001E-05</v>
+        <v>2.179262810386717E-05</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3.595621092244983E-05</v>
+        <v>4.343499676906504E-05</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11">
-        <v>0.0006237475317902863</v>
+        <v>4.972496753907762E-05</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12">
-        <v>0.0006237475317902863</v>
+        <v>3.887394632329233E-05</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B13">
         <v>3</v>
       </c>
       <c r="C13">
-        <v>3.595621092244983E-05</v>
+        <v>2.579343345132656E-05</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B14">
         <v>4</v>
       </c>
       <c r="C14">
-        <v>4.13628076785244E-05</v>
+        <v>0.000116427407192532</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B15">
         <v>5</v>
       </c>
       <c r="C15">
-        <v>0.01892049238085747</v>
+        <v>9.351660992251709E-05</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B16">
         <v>6</v>
       </c>
       <c r="C16">
-        <v>0.1997461318969727</v>
+        <v>0.07312488555908203</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B17">
         <v>7</v>
       </c>
       <c r="C17">
-        <v>0.4439837038516998</v>
+        <v>0.43720543384552</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B18">
         <v>8</v>
       </c>
       <c r="C18">
-        <v>0.702309250831604</v>
+        <v>0.7841391563415527</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B19">
         <v>9</v>
       </c>
       <c r="C19">
-        <v>1.100550770759583</v>
+        <v>1.14054000377655</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B20">
         <v>10</v>
       </c>
       <c r="C20">
-        <v>1.332169413566589</v>
+        <v>1.647976279258728</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B21">
         <v>11</v>
       </c>
       <c r="C21">
-        <v>1.423823714256287</v>
+        <v>1.882047533988953</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B22">
         <v>12</v>
       </c>
       <c r="C22">
-        <v>1.314153909683228</v>
+        <v>1.939345717430115</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B23">
         <v>13</v>
       </c>
       <c r="C23">
-        <v>1.080444693565369</v>
+        <v>1.917517423629761</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B24">
         <v>14</v>
       </c>
       <c r="C24">
-        <v>0.8717729449272156</v>
+        <v>1.689490556716919</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B25">
         <v>15</v>
       </c>
       <c r="C25">
-        <v>0.5120487809181213</v>
+        <v>1.366608023643494</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B26">
         <v>16</v>
       </c>
       <c r="C26">
-        <v>0.1955958008766174</v>
+        <v>0.9647137522697449</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B27">
         <v>17</v>
       </c>
       <c r="C27">
-        <v>0.008611997589468956</v>
+        <v>0.6504440903663635</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B28">
         <v>18</v>
       </c>
       <c r="C28">
-        <v>-7.613326488353778E-06</v>
+        <v>0.3578262329101562</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B29">
         <v>19</v>
       </c>
       <c r="C29">
-        <v>-3.038090653717518E-06</v>
+        <v>0.1366828978061676</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B30">
         <v>20</v>
       </c>
       <c r="C30">
-        <v>-1.61176358233206E-05</v>
+        <v>0.003936072811484337</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B31">
         <v>21</v>
       </c>
       <c r="C31">
-        <v>-4.70435043098405E-05</v>
+        <v>-2.898219099733979E-05</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B32">
         <v>22</v>
       </c>
       <c r="C32">
-        <v>6.932053224772972E-07</v>
+        <v>-2.898219099733979E-05</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>45372</v>
+        <v>45413</v>
       </c>
       <c r="B33">
         <v>23</v>
       </c>
       <c r="C33">
-        <v>-3.01865179608285E-06</v>
+        <v>-2.127410152752418E-05</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34">
-        <v>1.486790006310912E-05</v>
+        <v>3.976783045800403E-05</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35">
-        <v>-1.306845570070436E-05</v>
+        <v>2.490208498784341E-05</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B36">
         <v>2</v>
       </c>
       <c r="C36">
-        <v>-2.104976738337427E-05</v>
+        <v>0.000137180119054392</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B37">
         <v>3</v>
       </c>
       <c r="C37">
-        <v>-2.829147888405714E-05</v>
+        <v>0.0001483993255533278</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B38">
         <v>4</v>
       </c>
       <c r="C38">
-        <v>-2.288486575707793E-05</v>
+        <v>0.0001323296019108966</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B39">
         <v>5</v>
       </c>
       <c r="C39">
-        <v>0.05482981353998184</v>
+        <v>0.0001125499838963151</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B40">
         <v>6</v>
       </c>
       <c r="C40">
-        <v>0.5376296043395996</v>
+        <v>0.03988964855670929</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B41">
         <v>7</v>
       </c>
       <c r="C41">
-        <v>1.191763520240784</v>
+        <v>0.1830233484506607</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B42">
         <v>8</v>
       </c>
       <c r="C42">
-        <v>1.863856077194214</v>
+        <v>0.2989694774150848</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B43">
         <v>9</v>
       </c>
       <c r="C43">
-        <v>2.317228317260742</v>
+        <v>0.5135270953178406</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B44">
         <v>10</v>
       </c>
       <c r="C44">
-        <v>2.574221134185791</v>
+        <v>0.7651183605194092</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B45">
         <v>11</v>
       </c>
       <c r="C45">
-        <v>2.487426280975342</v>
+        <v>0.9633459448814392</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B46">
         <v>12</v>
       </c>
       <c r="C46">
-        <v>2.074438571929932</v>
+        <v>1.222952723503113</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B47">
         <v>13</v>
       </c>
       <c r="C47">
-        <v>1.806388020515442</v>
+        <v>1.376287937164307</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B48">
         <v>14</v>
       </c>
       <c r="C48">
-        <v>1.402821063995361</v>
+        <v>1.254578113555908</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B49">
         <v>15</v>
       </c>
       <c r="C49">
-        <v>1.001224398612976</v>
+        <v>1.09137487411499</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B50">
         <v>16</v>
       </c>
       <c r="C50">
-        <v>0.3407089114189148</v>
+        <v>0.8124585151672363</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B51">
         <v>17</v>
       </c>
       <c r="C51">
-        <v>0.0229976586997509</v>
+        <v>0.4503576755523682</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B52">
         <v>18</v>
       </c>
       <c r="C52">
-        <v>-2.680684701772407E-05</v>
+        <v>0.2969328463077545</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B53">
         <v>19</v>
       </c>
       <c r="C53">
-        <v>-3.693066219057073E-06</v>
+        <v>0.1186396926641464</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B54">
         <v>20</v>
       </c>
       <c r="C54">
-        <v>-4.736558821605286E-06</v>
+        <v>0.003938302397727966</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B55">
         <v>21</v>
       </c>
       <c r="C55">
-        <v>-4.526847988017835E-05</v>
+        <v>-2.850716191460378E-05</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B56">
         <v>22</v>
       </c>
       <c r="C56">
-        <v>1.152382083091652E-05</v>
+        <v>-2.931151539087296E-05</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>45373</v>
+        <v>45414</v>
       </c>
       <c r="B57">
         <v>23</v>
       </c>
       <c r="C57">
-        <v>1.152382083091652E-05</v>
+        <v>-2.931151539087296E-05</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
       <c r="C58">
-        <v>-1.011599761113757E-05</v>
+        <v>5.312895518727601E-05</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
       <c r="C59">
-        <v>-1.011599761113757E-05</v>
+        <v>2.47788084379863E-05</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B60">
         <v>2</v>
       </c>
       <c r="C60">
-        <v>4.5300012629923E-08</v>
+        <v>2.19520261452999E-05</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B61">
         <v>3</v>
       </c>
       <c r="C61">
-        <v>4.5300012629923E-08</v>
+        <v>2.19520261452999E-05</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B62">
         <v>4</v>
       </c>
       <c r="C62">
-        <v>5.451897322927834E-06</v>
+        <v>0.0001161570544354618</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B63">
         <v>5</v>
       </c>
       <c r="C63">
-        <v>0.06933153420686722</v>
+        <v>9.637762559577823E-05</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B64">
         <v>6</v>
       </c>
       <c r="C64">
-        <v>0.6679633259773254</v>
+        <v>0.05054199695587158</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B65">
         <v>7</v>
       </c>
       <c r="C65">
-        <v>1.324351668357849</v>
+        <v>0.2652243077754974</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B66">
         <v>8</v>
       </c>
       <c r="C66">
-        <v>2.033601999282837</v>
+        <v>0.5065973401069641</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B67">
         <v>9</v>
       </c>
       <c r="C67">
-        <v>2.672539949417114</v>
+        <v>0.7828266024589539</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B68">
         <v>10</v>
       </c>
       <c r="C68">
-        <v>2.953146934509277</v>
+        <v>1.090053915977478</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B69">
         <v>11</v>
       </c>
       <c r="C69">
-        <v>2.942899942398071</v>
+        <v>1.342526435852051</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B70">
         <v>12</v>
       </c>
       <c r="C70">
-        <v>2.787437200546265</v>
+        <v>1.603681921958923</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B71">
         <v>13</v>
       </c>
       <c r="C71">
-        <v>2.309870481491089</v>
+        <v>1.624261021614075</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B72">
         <v>14</v>
       </c>
       <c r="C72">
-        <v>1.735289216041565</v>
+        <v>1.404422402381897</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B73">
         <v>15</v>
       </c>
       <c r="C73">
-        <v>1.068436741828918</v>
+        <v>1.146062254905701</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B74">
         <v>16</v>
       </c>
       <c r="C74">
-        <v>0.40159672498703</v>
+        <v>0.8244909644126892</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B75">
         <v>17</v>
       </c>
       <c r="C75">
-        <v>0.02458824217319489</v>
+        <v>0.4771115183830261</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B76">
         <v>18</v>
       </c>
       <c r="C76">
-        <v>-7.743818423477933E-05</v>
+        <v>0.245746836066246</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B77">
         <v>19</v>
       </c>
       <c r="C77">
-        <v>1.492758838139707E-05</v>
+        <v>0.1081647574901581</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B78">
         <v>20</v>
       </c>
       <c r="C78">
-        <v>1.289745432586642E-05</v>
+        <v>0.006121128797531128</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B79">
         <v>21</v>
       </c>
       <c r="C79">
-        <v>1.289745432586642E-05</v>
+        <v>-3.07372902170755E-05</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B80">
         <v>22</v>
       </c>
       <c r="C80">
-        <v>-9.767612937139347E-05</v>
+        <v>-2.392928945482709E-05</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1">
-        <v>45374</v>
+        <v>45415</v>
       </c>
       <c r="B81">
         <v>23</v>
       </c>
       <c r="C81">
-        <v>-0.0002429721935186535</v>
+        <v>-2.392928945482709E-05</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
       <c r="C82">
-        <v>2.68194344243966E-05</v>
+        <v>6.120712350821123E-05</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B83">
         <v>1</v>
       </c>
       <c r="C83">
-        <v>-1.592456101207063E-05</v>
+        <v>0.0001308175560552627</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B84">
         <v>2</v>
       </c>
       <c r="C84">
-        <v>8.565632924728561E-06</v>
+        <v>1.007880837278208E-05</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B85">
         <v>3</v>
       </c>
       <c r="C85">
-        <v>8.565632924728561E-06</v>
+        <v>-7.973011406647856E-07</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B86">
         <v>4</v>
       </c>
       <c r="C86">
-        <v>1.39722096719197E-05</v>
+        <v>9.340773976873606E-05</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B87">
         <v>5</v>
       </c>
       <c r="C87">
-        <v>0.08043450862169266</v>
+        <v>7.629613537574187E-05</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B88">
         <v>6</v>
       </c>
       <c r="C88">
-        <v>0.6130135059356689</v>
+        <v>0.08392699807882309</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B89">
         <v>7</v>
       </c>
       <c r="C89">
-        <v>1.322561264038086</v>
+        <v>0.4815904498100281</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B90">
         <v>8</v>
       </c>
       <c r="C90">
-        <v>2.025241136550903</v>
+        <v>1.019415497779846</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B91">
         <v>9</v>
       </c>
       <c r="C91">
-        <v>2.60886549949646</v>
+        <v>1.522014260292053</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B92">
         <v>10</v>
       </c>
       <c r="C92">
-        <v>2.782686710357666</v>
+        <v>1.818261981010437</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B93">
         <v>11</v>
       </c>
       <c r="C93">
-        <v>2.687728404998779</v>
+        <v>1.872527599334717</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B94">
         <v>12</v>
       </c>
       <c r="C94">
-        <v>2.550228834152222</v>
+        <v>1.937158346176147</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B95">
         <v>13</v>
       </c>
       <c r="C95">
-        <v>2.013827800750732</v>
+        <v>1.813088774681091</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B96">
         <v>14</v>
       </c>
       <c r="C96">
-        <v>1.428452968597412</v>
+        <v>1.561710000038147</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B97">
         <v>15</v>
       </c>
       <c r="C97">
-        <v>0.9200295805931091</v>
+        <v>1.359107732772827</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B98">
         <v>16</v>
       </c>
       <c r="C98">
-        <v>0.3202832937240601</v>
+        <v>1.063694477081299</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B99">
         <v>17</v>
       </c>
       <c r="C99">
-        <v>0.01778967306017876</v>
+        <v>0.8253090977668762</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B100">
         <v>18</v>
       </c>
       <c r="C100">
-        <v>0.000195821572560817</v>
+        <v>0.483604222536087</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B101">
         <v>19</v>
       </c>
       <c r="C101">
-        <v>-0.0001407218805979937</v>
+        <v>0.188175767660141</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B102">
         <v>20</v>
       </c>
       <c r="C102">
-        <v>-0.0001536883792141452</v>
+        <v>0.008803961798548698</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B103">
         <v>21</v>
       </c>
       <c r="C103">
-        <v>-3.152713907184079E-05</v>
+        <v>-4.46324011136312E-05</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B104">
         <v>22</v>
       </c>
       <c r="C104">
-        <v>-2.779063106572721E-05</v>
+        <v>-4.46324011136312E-05</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1">
-        <v>45375</v>
+        <v>45416</v>
       </c>
       <c r="B105">
         <v>23</v>
       </c>
       <c r="C105">
-        <v>-4.794305641553365E-05</v>
+        <v>1.467449965275591E-05</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B106">
         <v>0</v>
       </c>
       <c r="C106">
-        <v>9.058981959242374E-05</v>
+        <v>3.007499981322326E-05</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B107">
         <v>1</v>
       </c>
       <c r="C107">
-        <v>9.127025987254456E-05</v>
+        <v>2.132983718183823E-05</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B108">
         <v>2</v>
       </c>
       <c r="C108">
-        <v>0.0001389960816595703</v>
+        <v>-4.248637196724303E-06</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B109">
         <v>3</v>
       </c>
       <c r="C109">
-        <v>0.000152523978613317</v>
+        <v>3.314934656373225E-05</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B110">
         <v>4</v>
       </c>
       <c r="C110">
-        <v>-4.133208221901441E-06</v>
+        <v>0.0001321502786595374</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B111">
         <v>5</v>
       </c>
       <c r="C111">
-        <v>0.01945633068680763</v>
+        <v>0.0001116307321353815</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B112">
         <v>6</v>
       </c>
       <c r="C112">
-        <v>0.1906144917011261</v>
+        <v>0.1097673401236534</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B113">
         <v>7</v>
       </c>
       <c r="C113">
-        <v>0.3401539921760559</v>
+        <v>0.5385648012161255</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B114">
         <v>8</v>
       </c>
       <c r="C114">
-        <v>0.4791172444820404</v>
+        <v>1.198083519935608</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B115">
         <v>9</v>
       </c>
       <c r="C115">
-        <v>0.6076745390892029</v>
+        <v>1.882362365722656</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B116">
         <v>10</v>
       </c>
       <c r="C116">
-        <v>0.6656299233436584</v>
+        <v>2.368047714233398</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B117">
         <v>11</v>
       </c>
       <c r="C117">
-        <v>0.5744469165802002</v>
+        <v>2.818214893341064</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B118">
         <v>12</v>
       </c>
       <c r="C118">
-        <v>0.4379481673240662</v>
+        <v>2.812447786331177</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B119">
         <v>13</v>
       </c>
       <c r="C119">
-        <v>0.3515733480453491</v>
+        <v>2.586523294448853</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B120">
         <v>14</v>
       </c>
       <c r="C120">
-        <v>0.2821408212184906</v>
+        <v>2.218281269073486</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B121">
         <v>15</v>
       </c>
       <c r="C121">
-        <v>0.2057847082614899</v>
+        <v>1.736113786697388</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B122">
         <v>16</v>
       </c>
       <c r="C122">
-        <v>0.07165836542844772</v>
+        <v>1.317402362823486</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B123">
         <v>17</v>
       </c>
       <c r="C123">
-        <v>0.004275551531463861</v>
+        <v>0.9072041511535645</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B124">
         <v>18</v>
       </c>
       <c r="C124">
-        <v>-0.001125873532146215</v>
+        <v>0.4588103890419006</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B125">
         <v>19</v>
       </c>
       <c r="C125">
-        <v>2.199133996327873E-05</v>
+        <v>0.1902542412281036</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B126">
         <v>20</v>
       </c>
       <c r="C126">
-        <v>0.0001377856970066205</v>
+        <v>0.0091428617015481</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B127">
         <v>21</v>
       </c>
       <c r="C127">
-        <v>1.91094986803364E-05</v>
+        <v>-7.980933332873974E-06</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B128">
         <v>22</v>
       </c>
       <c r="C128">
-        <v>2.436973954900168E-05</v>
+        <v>-1.464529213990318E-05</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1">
-        <v>45376</v>
+        <v>45417</v>
       </c>
       <c r="B129">
         <v>23</v>
       </c>
       <c r="C129">
-        <v>-4.878045001532882E-05</v>
+        <v>-1.464529213990318E-05</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B130">
         <v>0</v>
       </c>
       <c r="C130">
-        <v>2.395520141362795E-06</v>
+        <v>4.572964098770171E-05</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B131">
         <v>1</v>
       </c>
       <c r="C131">
-        <v>2.615241101011634E-05</v>
+        <v>5.275080911815166E-05</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B132">
         <v>2</v>
       </c>
       <c r="C132">
-        <v>1.486790006310912E-05</v>
+        <v>0.0001241115242009982</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B133">
         <v>3</v>
       </c>
       <c r="C133">
-        <v>6.468183528340887E-06</v>
+        <v>0.0001241115242009982</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B134">
         <v>4</v>
       </c>
       <c r="C134">
-        <v>1.586219877935946E-05</v>
+        <v>0.0002814724575728178</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B135">
         <v>5</v>
       </c>
       <c r="C135">
-        <v>0.04266785085201263</v>
+        <v>0.0002012681507039815</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B136">
         <v>6</v>
       </c>
       <c r="C136">
-        <v>0.4220854341983795</v>
+        <v>0.06536483764648438</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B137">
         <v>7</v>
       </c>
       <c r="C137">
-        <v>1.037432432174683</v>
+        <v>0.3077976405620575</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B138">
         <v>8</v>
       </c>
       <c r="C138">
-        <v>1.718620777130127</v>
+        <v>0.5341768264770508</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B139">
         <v>9</v>
       </c>
       <c r="C139">
-        <v>2.245833396911621</v>
+        <v>0.7847064137458801</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B140">
         <v>10</v>
       </c>
       <c r="C140">
-        <v>2.54291844367981</v>
+        <v>1.042834758758545</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B141">
         <v>11</v>
       </c>
       <c r="C141">
-        <v>2.618825674057007</v>
+        <v>1.156436920166016</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B142">
         <v>12</v>
       </c>
       <c r="C142">
-        <v>2.482547998428345</v>
+        <v>1.286407351493835</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B143">
         <v>13</v>
       </c>
       <c r="C143">
-        <v>2.133153200149536</v>
+        <v>1.355425477027893</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B144">
         <v>14</v>
       </c>
       <c r="C144">
-        <v>1.537744641304016</v>
+        <v>1.121494054794312</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B145">
         <v>15</v>
       </c>
       <c r="C145">
-        <v>0.8747739195823669</v>
+        <v>0.9815901517868042</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B146">
         <v>16</v>
       </c>
       <c r="C146">
-        <v>0.3182914555072784</v>
+        <v>0.7779839038848877</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B147">
         <v>17</v>
       </c>
       <c r="C147">
-        <v>0.0193121712654829</v>
+        <v>0.4365014135837555</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B148">
         <v>18</v>
       </c>
       <c r="C148">
-        <v>2.376090014877263E-05</v>
+        <v>0.2972543239593506</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B149">
         <v>19</v>
       </c>
       <c r="C149">
-        <v>5.88553075431264E-06</v>
+        <v>0.1460897326469421</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B150">
         <v>20</v>
       </c>
       <c r="C150">
-        <v>7.758239007671364E-06</v>
+        <v>0.01136063039302826</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B151">
         <v>21</v>
       </c>
       <c r="C151">
-        <v>1.045876615535235E-05</v>
+        <v>6.216304609552026E-05</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B152">
         <v>22</v>
       </c>
       <c r="C152">
-        <v>3.791813924181042E-06</v>
+        <v>0.0001605069846846163</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1">
-        <v>45377</v>
+        <v>45418</v>
       </c>
       <c r="B153">
         <v>23</v>
       </c>
       <c r="C153">
-        <v>-5.647083980875323E-06</v>
+        <v>-3.255054252804257E-05</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B154">
         <v>0</v>
       </c>
       <c r="C154">
-        <v>-2.710987018872402E-06</v>
+        <v>0.0001268427295144647</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B155">
         <v>1</v>
       </c>
       <c r="C155">
-        <v>-3.420903885853477E-05</v>
+        <v>0.0001359567104373127</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B156">
         <v>2</v>
       </c>
       <c r="C156">
-        <v>2.691460031201132E-05</v>
+        <v>0.0001308175560552627</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B157">
         <v>3</v>
       </c>
       <c r="C157">
-        <v>5.067154052085243E-05</v>
+        <v>8.179635915439576E-05</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B158">
         <v>4</v>
       </c>
       <c r="C158">
-        <v>4.479362542042509E-05</v>
+        <v>0.000104640654171817</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B159">
         <v>5</v>
       </c>
       <c r="C159">
-        <v>0.0388619601726532</v>
+        <v>7.783979526720941E-05</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B160">
         <v>6</v>
       </c>
       <c r="C160">
-        <v>0.3402497470378876</v>
+        <v>0.09304156899452209</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B161">
         <v>7</v>
       </c>
       <c r="C161">
-        <v>0.9822158217430115</v>
+        <v>0.5054976344108582</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B162">
         <v>8</v>
       </c>
       <c r="C162">
-        <v>1.567873477935791</v>
+        <v>1.05496084690094</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B163">
         <v>9</v>
       </c>
       <c r="C163">
-        <v>2.063568592071533</v>
+        <v>1.648252606391907</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B164">
         <v>10</v>
       </c>
       <c r="C164">
-        <v>2.172280073165894</v>
+        <v>2.058785200119019</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B165">
         <v>11</v>
       </c>
       <c r="C165">
-        <v>2.281381368637085</v>
+        <v>2.52704381942749</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B166">
         <v>12</v>
       </c>
       <c r="C166">
-        <v>2.056968927383423</v>
+        <v>2.600974082946777</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B167">
         <v>13</v>
       </c>
       <c r="C167">
-        <v>1.752534151077271</v>
+        <v>2.530317783355713</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B168">
         <v>14</v>
       </c>
       <c r="C168">
-        <v>1.380589008331299</v>
+        <v>2.474480628967285</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B169">
         <v>15</v>
       </c>
       <c r="C169">
-        <v>0.8939394950866699</v>
+        <v>2.108061075210571</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="1">
-        <v>45378</v>
+        <v>45419</v>
       </c>
       <c r="B170">
         <v>16</v>
       </c>
       <c r="C170">
-        <v>0.3277862370014191</v>
+        <v>1.691917300224304</v>
       </c>
     </row>
   </sheetData>

--- a/Transavia/Production/Results/Results_daily_Brasov.xlsx
+++ b/Transavia/Production/Results/Results_daily_Brasov.xlsx
@@ -377,1861 +377,1861 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>45412</v>
+        <v>45436</v>
       </c>
       <c r="B2">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>0.0001365024654660374</v>
+        <v>7.706818723818287E-05</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>45412</v>
+        <v>45436</v>
       </c>
       <c r="B3">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>2.532359940232709E-05</v>
+        <v>-0.0001461319770896807</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>45412</v>
+        <v>45436</v>
       </c>
       <c r="B4">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>0.8850684762001038</v>
+        <v>2.963032960891724</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>45412</v>
+        <v>45436</v>
       </c>
       <c r="B5">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>0.1974881440401077</v>
+        <v>2.970384836196899</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>45412</v>
+        <v>45436</v>
       </c>
       <c r="B6">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C6">
-        <v>0.006366330198943615</v>
+        <v>2.899751424789429</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>45412</v>
+        <v>45436</v>
       </c>
       <c r="B7">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C7">
-        <v>-0.0003751278563868254</v>
+        <v>2.689855098724365</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>45412</v>
+        <v>45436</v>
       </c>
       <c r="B8">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C8">
-        <v>0.0003063718031626195</v>
+        <v>2.268395900726318</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>45412</v>
+        <v>45436</v>
       </c>
       <c r="B9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C9">
-        <v>2.179262810386717E-05</v>
+        <v>1.87797224521637</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>45413</v>
+        <v>45436</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C10">
-        <v>4.343499676906504E-05</v>
+        <v>1.374428153038025</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>45413</v>
+        <v>45436</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C11">
-        <v>4.972496753907762E-05</v>
+        <v>0.8264812231063843</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>45413</v>
+        <v>45436</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C12">
-        <v>3.887394632329233E-05</v>
+        <v>0.3010156154632568</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>45413</v>
+        <v>45436</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C13">
-        <v>2.579343345132656E-05</v>
+        <v>0.05738689005374908</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>45413</v>
+        <v>45436</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C14">
-        <v>0.000116427407192532</v>
+        <v>4.323468601796776E-05</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>45413</v>
+        <v>45436</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C15">
-        <v>9.351660992251709E-05</v>
+        <v>1.098397387977457E-05</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>45413</v>
+        <v>45436</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C16">
-        <v>0.07312488555908203</v>
+        <v>9.36280866881134E-06</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B17">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0.43720543384552</v>
+        <v>4.193768108962104E-05</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B18">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>0.7841391563415527</v>
+        <v>4.186861769994721E-05</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B19">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>1.14054000377655</v>
+        <v>3.489953542157309E-06</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B20">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C20">
-        <v>1.647976279258728</v>
+        <v>3.489953542157309E-06</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B21">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C21">
-        <v>1.882047533988953</v>
+        <v>-3.88858316000551E-05</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B22">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C22">
-        <v>1.939345717430115</v>
+        <v>0.007572723552584648</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B23">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C23">
-        <v>1.917517423629761</v>
+        <v>0.2333697825670242</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B24">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C24">
-        <v>1.689490556716919</v>
+        <v>0.7440881729125977</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B25">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C25">
-        <v>1.366608023643494</v>
+        <v>1.249959468841553</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B26">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C26">
-        <v>0.9647137522697449</v>
+        <v>1.679014205932617</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B27">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C27">
-        <v>0.6504440903663635</v>
+        <v>1.909085512161255</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B28">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C28">
-        <v>0.3578262329101562</v>
+        <v>2.116721391677856</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B29">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C29">
-        <v>0.1366828978061676</v>
+        <v>2.067879199981689</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B30">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C30">
-        <v>0.003936072811484337</v>
+        <v>1.847058892250061</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B31">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C31">
-        <v>-2.898219099733979E-05</v>
+        <v>1.589564681053162</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B32">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C32">
-        <v>-2.898219099733979E-05</v>
+        <v>1.288256049156189</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>45413</v>
+        <v>45437</v>
       </c>
       <c r="B33">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C33">
-        <v>-2.127410152752418E-05</v>
+        <v>1.015079021453857</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>45414</v>
+        <v>45437</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C34">
-        <v>3.976783045800403E-05</v>
+        <v>0.8369744420051575</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>45414</v>
+        <v>45437</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C35">
-        <v>2.490208498784341E-05</v>
+        <v>0.4405530691146851</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>45414</v>
+        <v>45437</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C36">
-        <v>0.000137180119054392</v>
+        <v>0.2324524372816086</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>45414</v>
+        <v>45437</v>
       </c>
       <c r="B37">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C37">
-        <v>0.0001483993255533278</v>
+        <v>0.0481136217713356</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>45414</v>
+        <v>45437</v>
       </c>
       <c r="B38">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C38">
-        <v>0.0001323296019108966</v>
+        <v>7.407364591927035E-06</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>45414</v>
+        <v>45437</v>
       </c>
       <c r="B39">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C39">
-        <v>0.0001125499838963151</v>
+        <v>-3.938320787710836E-06</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>45414</v>
+        <v>45437</v>
       </c>
       <c r="B40">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C40">
-        <v>0.03988964855670929</v>
+        <v>-4.759155854117125E-05</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B41">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>0.1830233484506607</v>
+        <v>-6.820807357144076E-06</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B42">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C42">
-        <v>0.2989694774150848</v>
+        <v>3.057715366594493E-05</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B43">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C43">
-        <v>0.5135270953178406</v>
+        <v>4.212697604089044E-05</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B44">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C44">
-        <v>0.7651183605194092</v>
+        <v>-8.593033999204636E-05</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B45">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C45">
-        <v>0.9633459448814392</v>
+        <v>8.690877439221367E-05</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B46">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C46">
-        <v>1.222952723503113</v>
+        <v>0.009757690131664276</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B47">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C47">
-        <v>1.376287937164307</v>
+        <v>0.3220847547054291</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B48">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C48">
-        <v>1.254578113555908</v>
+        <v>0.8769210577011108</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B49">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C49">
-        <v>1.09137487411499</v>
+        <v>1.566798210144043</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B50">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C50">
-        <v>0.8124585151672363</v>
+        <v>2.195414781570435</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B51">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C51">
-        <v>0.4503576755523682</v>
+        <v>2.730868339538574</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B52">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C52">
-        <v>0.2969328463077545</v>
+        <v>2.968198299407959</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B53">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C53">
-        <v>0.1186396926641464</v>
+        <v>2.970481872558594</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B54">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C54">
-        <v>0.003938302397727966</v>
+        <v>2.900342702865601</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B55">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C55">
-        <v>-2.850716191460378E-05</v>
+        <v>2.901627779006958</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B56">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C56">
-        <v>-2.931151539087296E-05</v>
+        <v>2.754739284515381</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>45414</v>
+        <v>45438</v>
       </c>
       <c r="B57">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C57">
-        <v>-2.931151539087296E-05</v>
+        <v>2.321343898773193</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>45415</v>
+        <v>45438</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C58">
-        <v>5.312895518727601E-05</v>
+        <v>1.717936992645264</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1">
-        <v>45415</v>
+        <v>45438</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C59">
-        <v>2.47788084379863E-05</v>
+        <v>1.020201802253723</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1">
-        <v>45415</v>
+        <v>45438</v>
       </c>
       <c r="B60">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C60">
-        <v>2.19520261452999E-05</v>
+        <v>0.4441049695014954</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1">
-        <v>45415</v>
+        <v>45438</v>
       </c>
       <c r="B61">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C61">
-        <v>2.19520261452999E-05</v>
+        <v>0.0672452375292778</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1">
-        <v>45415</v>
+        <v>45438</v>
       </c>
       <c r="B62">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C62">
-        <v>0.0001161570544354618</v>
+        <v>-2.592650707811117E-05</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1">
-        <v>45415</v>
+        <v>45438</v>
       </c>
       <c r="B63">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C63">
-        <v>9.637762559577823E-05</v>
+        <v>-3.565104998415336E-05</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1">
-        <v>45415</v>
+        <v>45438</v>
       </c>
       <c r="B64">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C64">
-        <v>0.05054199695587158</v>
+        <v>-7.796625868650153E-05</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B65">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C65">
-        <v>0.2652243077754974</v>
+        <v>3.955476495320909E-05</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B66">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C66">
-        <v>0.5065973401069641</v>
+        <v>3.955476495320909E-05</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B67">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C67">
-        <v>0.7828266024589539</v>
+        <v>4.212697604089044E-05</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B68">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C68">
-        <v>1.090053915977478</v>
+        <v>-2.247883821837604E-05</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B69">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C69">
-        <v>1.342526435852051</v>
+        <v>7.17262300895527E-05</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B70">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C70">
-        <v>1.603681921958923</v>
+        <v>0.01100106630474329</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B71">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C71">
-        <v>1.624261021614075</v>
+        <v>0.2693271934986115</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B72">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C72">
-        <v>1.404422402381897</v>
+        <v>0.8048058152198792</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B73">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C73">
-        <v>1.146062254905701</v>
+        <v>1.431807279586792</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B74">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C74">
-        <v>0.8244909644126892</v>
+        <v>1.968944311141968</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B75">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C75">
-        <v>0.4771115183830261</v>
+        <v>2.298851490020752</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B76">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C76">
-        <v>0.245746836066246</v>
+        <v>2.689790964126587</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B77">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C77">
-        <v>0.1081647574901581</v>
+        <v>2.71004056930542</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B78">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C78">
-        <v>0.006121128797531128</v>
+        <v>2.531456470489502</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B79">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C79">
-        <v>-3.07372902170755E-05</v>
+        <v>2.152577638626099</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B80">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C80">
-        <v>-2.392928945482709E-05</v>
+        <v>1.711251139640808</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1">
-        <v>45415</v>
+        <v>45439</v>
       </c>
       <c r="B81">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C81">
-        <v>-2.392928945482709E-05</v>
+        <v>1.271426439285278</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1">
-        <v>45416</v>
+        <v>45439</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C82">
-        <v>6.120712350821123E-05</v>
+        <v>0.8897780776023865</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1">
-        <v>45416</v>
+        <v>45439</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C83">
-        <v>0.0001308175560552627</v>
+        <v>0.5046533346176147</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1">
-        <v>45416</v>
+        <v>45439</v>
       </c>
       <c r="B84">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C84">
-        <v>1.007880837278208E-05</v>
+        <v>0.2455223351716995</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1">
-        <v>45416</v>
+        <v>45439</v>
       </c>
       <c r="B85">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C85">
-        <v>-7.973011406647856E-07</v>
+        <v>0.04082949459552765</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1">
-        <v>45416</v>
+        <v>45439</v>
       </c>
       <c r="B86">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C86">
-        <v>9.340773976873606E-05</v>
+        <v>3.859443040710175E-06</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1">
-        <v>45416</v>
+        <v>45439</v>
       </c>
       <c r="B87">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C87">
-        <v>7.629613537574187E-05</v>
+        <v>-7.229861512314528E-05</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1">
-        <v>45416</v>
+        <v>45439</v>
       </c>
       <c r="B88">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C88">
-        <v>0.08392699807882309</v>
+        <v>-5.442323890747502E-05</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B89">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C89">
-        <v>0.4815904498100281</v>
+        <v>4.006759627372958E-05</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B90">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C90">
-        <v>1.019415497779846</v>
+        <v>4.161123797530308E-05</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B91">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C91">
-        <v>1.522014260292053</v>
+        <v>4.863239882979542E-05</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B92">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C92">
-        <v>1.818261981010437</v>
+        <v>6.853915692772716E-05</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B93">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C93">
-        <v>1.872527599334717</v>
+        <v>0.0001512372109573334</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B94">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C94">
-        <v>1.937158346176147</v>
+        <v>0.005160431377589703</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B95">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C95">
-        <v>1.813088774681091</v>
+        <v>0.1620040684938431</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B96">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C96">
-        <v>1.561710000038147</v>
+        <v>0.3759235739707947</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B97">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C97">
-        <v>1.359107732772827</v>
+        <v>0.5209514498710632</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B98">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C98">
-        <v>1.063694477081299</v>
+        <v>0.7144472599029541</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B99">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C99">
-        <v>0.8253090977668762</v>
+        <v>0.9343915581703186</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B100">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C100">
-        <v>0.483604222536087</v>
+        <v>1.114065170288086</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B101">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C101">
-        <v>0.188175767660141</v>
+        <v>1.425643682479858</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B102">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C102">
-        <v>0.008803961798548698</v>
+        <v>1.737359523773193</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B103">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C103">
-        <v>-4.46324011136312E-05</v>
+        <v>1.778470039367676</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B104">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C104">
-        <v>-4.46324011136312E-05</v>
+        <v>1.620978713035583</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1">
-        <v>45416</v>
+        <v>45440</v>
       </c>
       <c r="B105">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C105">
-        <v>1.467449965275591E-05</v>
+        <v>1.232329368591309</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1">
-        <v>45417</v>
+        <v>45440</v>
       </c>
       <c r="B106">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C106">
-        <v>3.007499981322326E-05</v>
+        <v>0.9210061430931091</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1">
-        <v>45417</v>
+        <v>45440</v>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C107">
-        <v>2.132983718183823E-05</v>
+        <v>0.4482847154140472</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1">
-        <v>45417</v>
+        <v>45440</v>
       </c>
       <c r="B108">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C108">
-        <v>-4.248637196724303E-06</v>
+        <v>0.2125383466482162</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1">
-        <v>45417</v>
+        <v>45440</v>
       </c>
       <c r="B109">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C109">
-        <v>3.314934656373225E-05</v>
+        <v>0.04710355401039124</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1">
-        <v>45417</v>
+        <v>45440</v>
       </c>
       <c r="B110">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C110">
-        <v>0.0001321502786595374</v>
+        <v>-3.720469612744637E-05</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1">
-        <v>45417</v>
+        <v>45440</v>
       </c>
       <c r="B111">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C111">
-        <v>0.0001116307321353815</v>
+        <v>7.082430238369852E-05</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1">
-        <v>45417</v>
+        <v>45440</v>
       </c>
       <c r="B112">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C112">
-        <v>0.1097673401236534</v>
+        <v>-6.668505375273526E-05</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B113">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C113">
-        <v>0.5385648012161255</v>
+        <v>3.76159259758424E-05</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B114">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C114">
-        <v>1.198083519935608</v>
+        <v>3.90390632674098E-05</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B115">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C115">
-        <v>1.882362365722656</v>
+        <v>3.90390632674098E-05</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B116">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C116">
-        <v>2.368047714233398</v>
+        <v>3.90390632674098E-05</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B117">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C117">
-        <v>2.818214893341064</v>
+        <v>0.0001332441170234233</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B118">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C118">
-        <v>2.812447786331177</v>
+        <v>0.007658921647816896</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B119">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C119">
-        <v>2.586523294448853</v>
+        <v>0.1937922388315201</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B120">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C120">
-        <v>2.218281269073486</v>
+        <v>0.5244823694229126</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B121">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C121">
-        <v>1.736113786697388</v>
+        <v>0.7742630243301392</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B122">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C122">
-        <v>1.317402362823486</v>
+        <v>1.106024503707886</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B123">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C123">
-        <v>0.9072041511535645</v>
+        <v>1.638098835945129</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B124">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C124">
-        <v>0.4588103890419006</v>
+        <v>2.020453214645386</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B125">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C125">
-        <v>0.1902542412281036</v>
+        <v>2.216177940368652</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B126">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C126">
-        <v>0.0091428617015481</v>
+        <v>2.258945465087891</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B127">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C127">
-        <v>-7.980933332873974E-06</v>
+        <v>2.063277721405029</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B128">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C128">
-        <v>-1.464529213990318E-05</v>
+        <v>1.77626633644104</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1">
-        <v>45417</v>
+        <v>45441</v>
       </c>
       <c r="B129">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C129">
-        <v>-1.464529213990318E-05</v>
+        <v>1.363487005233765</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1">
-        <v>45418</v>
+        <v>45441</v>
       </c>
       <c r="B130">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C130">
-        <v>4.572964098770171E-05</v>
+        <v>0.9344030618667603</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1">
-        <v>45418</v>
+        <v>45441</v>
       </c>
       <c r="B131">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C131">
-        <v>5.275080911815166E-05</v>
+        <v>0.4998587369918823</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1">
-        <v>45418</v>
+        <v>45441</v>
       </c>
       <c r="B132">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C132">
-        <v>0.0001241115242009982</v>
+        <v>0.2089321166276932</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1">
-        <v>45418</v>
+        <v>45441</v>
       </c>
       <c r="B133">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C133">
-        <v>0.0001241115242009982</v>
+        <v>0.0564991794526577</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1">
-        <v>45418</v>
+        <v>45441</v>
       </c>
       <c r="B134">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C134">
-        <v>0.0002814724575728178</v>
+        <v>0.0001815024588722736</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1">
-        <v>45418</v>
+        <v>45441</v>
       </c>
       <c r="B135">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C135">
-        <v>0.0002012681507039815</v>
+        <v>1.505393538536737E-05</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1">
-        <v>45418</v>
+        <v>45441</v>
       </c>
       <c r="B136">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C136">
-        <v>0.06536483764648438</v>
+        <v>-7.980933332873974E-06</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B137">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C137">
-        <v>0.3077976405620575</v>
+        <v>5.239401798462495E-05</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B138">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C138">
-        <v>0.5341768264770508</v>
+        <v>4.430651824804954E-05</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B139">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C139">
-        <v>0.7847064137458801</v>
+        <v>4.151792381890118E-05</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B140">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C140">
-        <v>1.042834758758545</v>
+        <v>3.989675315096974E-05</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B141">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C141">
-        <v>1.156436920166016</v>
+        <v>9.178659820463508E-05</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B142">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C142">
-        <v>1.286407351493835</v>
+        <v>0.01102321688085794</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B143">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C143">
-        <v>1.355425477027893</v>
+        <v>0.2320841699838638</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B144">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C144">
-        <v>1.121494054794312</v>
+        <v>0.6845710873603821</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B145">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C145">
-        <v>0.9815901517868042</v>
+        <v>1.140897035598755</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B146">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C146">
-        <v>0.7779839038848877</v>
+        <v>1.672193765640259</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B147">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C147">
-        <v>0.4365014135837555</v>
+        <v>1.975555896759033</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B148">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C148">
-        <v>0.2972543239593506</v>
+        <v>2.18968677520752</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B149">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C149">
-        <v>0.1460897326469421</v>
+        <v>2.185932397842407</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B150">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C150">
-        <v>0.01136063039302826</v>
+        <v>2.181912899017334</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B151">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C151">
-        <v>6.216304609552026E-05</v>
+        <v>1.96988570690155</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B152">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C152">
-        <v>0.0001605069846846163</v>
+        <v>1.67196524143219</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1">
-        <v>45418</v>
+        <v>45442</v>
       </c>
       <c r="B153">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C153">
-        <v>-3.255054252804257E-05</v>
+        <v>1.278994798660278</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1">
-        <v>45419</v>
+        <v>45442</v>
       </c>
       <c r="B154">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C154">
-        <v>0.0001268427295144647</v>
+        <v>0.9175560474395752</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1">
-        <v>45419</v>
+        <v>45442</v>
       </c>
       <c r="B155">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C155">
-        <v>0.0001359567104373127</v>
+        <v>0.4982601404190063</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1">
-        <v>45419</v>
+        <v>45442</v>
       </c>
       <c r="B156">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C156">
-        <v>0.0001308175560552627</v>
+        <v>0.2180136293172836</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1">
-        <v>45419</v>
+        <v>45442</v>
       </c>
       <c r="B157">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C157">
-        <v>8.179635915439576E-05</v>
+        <v>0.05751275643706322</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="1">
-        <v>45419</v>
+        <v>45442</v>
       </c>
       <c r="B158">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C158">
-        <v>0.000104640654171817</v>
+        <v>3.846708204946481E-05</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="1">
-        <v>45419</v>
+        <v>45442</v>
       </c>
       <c r="B159">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C159">
-        <v>7.783979526720941E-05</v>
+        <v>3.659437425085343E-05</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1">
-        <v>45419</v>
+        <v>45442</v>
       </c>
       <c r="B160">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C160">
-        <v>0.09304156899452209</v>
+        <v>0.0001559337542857975</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1">
-        <v>45419</v>
+        <v>45443</v>
       </c>
       <c r="B161">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C161">
-        <v>0.5054976344108582</v>
+        <v>0.0002221430913778022</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1">
-        <v>45419</v>
+        <v>45443</v>
       </c>
       <c r="B162">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C162">
-        <v>1.05496084690094</v>
+        <v>0.0002420498203719035</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="1">
-        <v>45419</v>
+        <v>45443</v>
       </c>
       <c r="B163">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C163">
-        <v>1.648252606391907</v>
+        <v>0.000230542806093581</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1">
-        <v>45419</v>
+        <v>45443</v>
       </c>
       <c r="B164">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C164">
-        <v>2.058785200119019</v>
+        <v>0.000230542806093581</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1">
-        <v>45419</v>
+        <v>45443</v>
       </c>
       <c r="B165">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C165">
-        <v>2.52704381942749</v>
+        <v>0.0003272769681643695</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="1">
-        <v>45419</v>
+        <v>45443</v>
       </c>
       <c r="B166">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C166">
-        <v>2.600974082946777</v>
+        <v>0.007964997552335262</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="1">
-        <v>45419</v>
+        <v>45443</v>
       </c>
       <c r="B167">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C167">
-        <v>2.530317783355713</v>
+        <v>0.1762947887182236</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="1">
-        <v>45419</v>
+        <v>45443</v>
       </c>
       <c r="B168">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C168">
-        <v>2.474480628967285</v>
+        <v>0.4667447507381439</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="1">
-        <v>45419</v>
+        <v>45443</v>
       </c>
       <c r="B169">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C169">
-        <v>2.108061075210571</v>
+        <v>0.7585582137107849</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="1">
-        <v>45419</v>
+        <v>45443</v>
       </c>
       <c r="B170">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C170">
-        <v>1.691917300224304</v>
+        <v>1.079959034919739</v>
       </c>
     </row>
   </sheetData>

--- a/Transavia/Production/Results/Results_daily_Brasov.xlsx
+++ b/Transavia/Production/Results/Results_daily_Brasov.xlsx
@@ -377,1861 +377,1861 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>7.706818723818287E-05</v>
+        <v>-3.499720696709119E-05</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>-0.0001461319770896807</v>
+        <v>-0.0001313099928665906</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>2.963032960891724</v>
+        <v>1.939919590950012</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B5">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>2.970384836196899</v>
+        <v>2.546417474746704</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B6">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>2.899751424789429</v>
+        <v>2.887041568756104</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B7">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>2.689855098724365</v>
+        <v>2.862788915634155</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B8">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>2.268395900726318</v>
+        <v>2.632609844207764</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B9">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C9">
-        <v>1.87797224521637</v>
+        <v>2.29271674156189</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B10">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C10">
-        <v>1.374428153038025</v>
+        <v>1.765712261199951</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B11">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11">
-        <v>0.8264812231063843</v>
+        <v>1.343736171722412</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B12">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12">
-        <v>0.3010156154632568</v>
+        <v>1.027080178260803</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B13">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C13">
-        <v>0.05738689005374908</v>
+        <v>0.805854320526123</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B14">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C14">
-        <v>4.323468601796776E-05</v>
+        <v>0.391895204782486</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B15">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C15">
-        <v>1.098397387977457E-05</v>
+        <v>0.08542836457490921</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>45436</v>
+        <v>45461</v>
       </c>
       <c r="B16">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C16">
-        <v>9.36280866881134E-06</v>
+        <v>0.0006819336558692157</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>45437</v>
+        <v>45461</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C17">
-        <v>4.193768108962104E-05</v>
+        <v>-0.0001760782615747303</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>45437</v>
+        <v>45461</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C18">
-        <v>4.186861769994721E-05</v>
+        <v>-0.0001760782615747303</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>3.489953542157309E-06</v>
+        <v>-0.0007030843989923596</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>3.489953542157309E-06</v>
+        <v>0.0001003640936687589</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C21">
-        <v>-3.88858316000551E-05</v>
+        <v>0.0001003640936687589</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C22">
-        <v>0.007572723552584648</v>
+        <v>0.0001036171015584841</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C23">
-        <v>0.2333697825670242</v>
+        <v>0.0001239651173818856</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B24">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C24">
-        <v>0.7440881729125977</v>
+        <v>0.01644747890532017</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B25">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C25">
-        <v>1.249959468841553</v>
+        <v>0.2957980334758759</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B26">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C26">
-        <v>1.679014205932617</v>
+        <v>0.821370542049408</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B27">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C27">
-        <v>1.909085512161255</v>
+        <v>1.398465752601624</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B28">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C28">
-        <v>2.116721391677856</v>
+        <v>2.055062055587769</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B29">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C29">
-        <v>2.067879199981689</v>
+        <v>2.524578809738159</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B30">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C30">
-        <v>1.847058892250061</v>
+        <v>2.868005514144897</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B31">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C31">
-        <v>1.589564681053162</v>
+        <v>2.954883575439453</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B32">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C32">
-        <v>1.288256049156189</v>
+        <v>2.883528470993042</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B33">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C33">
-        <v>1.015079021453857</v>
+        <v>2.773480892181396</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B34">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C34">
-        <v>0.8369744420051575</v>
+        <v>2.470631837844849</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B35">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C35">
-        <v>0.4405530691146851</v>
+        <v>2.048697948455811</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B36">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C36">
-        <v>0.2324524372816086</v>
+        <v>1.457204222679138</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B37">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C37">
-        <v>0.0481136217713356</v>
+        <v>0.9087405800819397</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B38">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C38">
-        <v>7.407364591927035E-06</v>
+        <v>0.4046466946601868</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B39">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C39">
-        <v>-3.938320787710836E-06</v>
+        <v>0.08440438657999039</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>45437</v>
+        <v>45462</v>
       </c>
       <c r="B40">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C40">
-        <v>-4.759155854117125E-05</v>
+        <v>-0.003824806539341807</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>45438</v>
+        <v>45462</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C41">
-        <v>-6.820807357144076E-06</v>
+        <v>-0.001052239793352783</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>45438</v>
+        <v>45462</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C42">
-        <v>3.057715366594493E-05</v>
+        <v>0.001179903745651245</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>4.212697604089044E-05</v>
+        <v>0.001608536811545491</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C44">
-        <v>-8.593033999204636E-05</v>
+        <v>0.0002396964409854263</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C45">
-        <v>8.690877439221367E-05</v>
+        <v>-2.055280492641032E-05</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B46">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C46">
-        <v>0.009757690131664276</v>
+        <v>0.0004108563880436122</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B47">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C47">
-        <v>0.3220847547054291</v>
+        <v>-0.0007593522313982248</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B48">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C48">
-        <v>0.8769210577011108</v>
+        <v>0.01856130361557007</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B49">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C49">
-        <v>1.566798210144043</v>
+        <v>0.2688986957073212</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B50">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C50">
-        <v>2.195414781570435</v>
+        <v>0.8007174730300903</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B51">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C51">
-        <v>2.730868339538574</v>
+        <v>1.357987403869629</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B52">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C52">
-        <v>2.968198299407959</v>
+        <v>1.929905414581299</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B53">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C53">
-        <v>2.970481872558594</v>
+        <v>2.39696741104126</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B54">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C54">
-        <v>2.900342702865601</v>
+        <v>2.759686708450317</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B55">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C55">
-        <v>2.901627779006958</v>
+        <v>2.953411340713501</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B56">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C56">
-        <v>2.754739284515381</v>
+        <v>2.744726896286011</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B57">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C57">
-        <v>2.321343898773193</v>
+        <v>2.555145978927612</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B58">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C58">
-        <v>1.717936992645264</v>
+        <v>2.263466119766235</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B59">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C59">
-        <v>1.020201802253723</v>
+        <v>1.867343664169312</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B60">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C60">
-        <v>0.4441049695014954</v>
+        <v>1.366187810897827</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B61">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C61">
-        <v>0.0672452375292778</v>
+        <v>0.8983224630355835</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B62">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C62">
-        <v>-2.592650707811117E-05</v>
+        <v>0.4012491106987</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B63">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C63">
-        <v>-3.565104998415336E-05</v>
+        <v>0.08270791172981262</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1">
-        <v>45438</v>
+        <v>45463</v>
       </c>
       <c r="B64">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C64">
-        <v>-7.796625868650153E-05</v>
+        <v>-0.0009622631478123367</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1">
-        <v>45439</v>
+        <v>45463</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C65">
-        <v>3.955476495320909E-05</v>
+        <v>0.001119895954616368</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1">
-        <v>45439</v>
+        <v>45463</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C66">
-        <v>3.955476495320909E-05</v>
+        <v>0.000681903213262558</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C67">
-        <v>4.212697604089044E-05</v>
+        <v>-0.0007030843989923596</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C68">
-        <v>-2.247883821837604E-05</v>
+        <v>0.0001036171015584841</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B69">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C69">
-        <v>7.17262300895527E-05</v>
+        <v>0.0001036171015584841</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B70">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C70">
-        <v>0.01100106630474329</v>
+        <v>0.0001036171015584841</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B71">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C71">
-        <v>0.2693271934986115</v>
+        <v>0.000136724891490303</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B72">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C72">
-        <v>0.8048058152198792</v>
+        <v>0.01646257564425468</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B73">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C73">
-        <v>1.431807279586792</v>
+        <v>0.2758605182170868</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B74">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C74">
-        <v>1.968944311141968</v>
+        <v>0.8064948320388794</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B75">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C75">
-        <v>2.298851490020752</v>
+        <v>1.383849620819092</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B76">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C76">
-        <v>2.689790964126587</v>
+        <v>1.98661196231842</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B77">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C77">
-        <v>2.71004056930542</v>
+        <v>2.485585451126099</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B78">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C78">
-        <v>2.531456470489502</v>
+        <v>2.843494415283203</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B79">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C79">
-        <v>2.152577638626099</v>
+        <v>2.961782932281494</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B80">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C80">
-        <v>1.711251139640808</v>
+        <v>2.872260570526123</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B81">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C81">
-        <v>1.271426439285278</v>
+        <v>2.864788055419922</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B82">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C82">
-        <v>0.8897780776023865</v>
+        <v>2.646899461746216</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B83">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C83">
-        <v>0.5046533346176147</v>
+        <v>2.200063228607178</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B84">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C84">
-        <v>0.2455223351716995</v>
+        <v>1.670767784118652</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B85">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C85">
-        <v>0.04082949459552765</v>
+        <v>1.043513655662537</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B86">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C86">
-        <v>3.859443040710175E-06</v>
+        <v>0.4099055230617523</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B87">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C87">
-        <v>-7.229861512314528E-05</v>
+        <v>0.07300185412168503</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1">
-        <v>45439</v>
+        <v>45464</v>
       </c>
       <c r="B88">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C88">
-        <v>-5.442323890747502E-05</v>
+        <v>-0.0004382968472782522</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1">
-        <v>45440</v>
+        <v>45464</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C89">
-        <v>4.006759627372958E-05</v>
+        <v>-0.001061450457200408</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1">
-        <v>45440</v>
+        <v>45464</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C90">
-        <v>4.161123797530308E-05</v>
+        <v>-5.889928070246242E-05</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B91">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C91">
-        <v>4.863239882979542E-05</v>
+        <v>0.0008576763211749494</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C92">
-        <v>6.853915692772716E-05</v>
+        <v>0.0009005864267237484</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B93">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C93">
-        <v>0.0001512372109573334</v>
+        <v>0.0002396964409854263</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B94">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C94">
-        <v>0.005160431377589703</v>
+        <v>0.0007140157977119088</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B95">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C95">
-        <v>0.1620040684938431</v>
+        <v>0.0009051347151398659</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B96">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C96">
-        <v>0.3759235739707947</v>
+        <v>0.01641803421080112</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B97">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C97">
-        <v>0.5209514498710632</v>
+        <v>0.2722707092761993</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B98">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C98">
-        <v>0.7144472599029541</v>
+        <v>0.82325279712677</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B99">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C99">
-        <v>0.9343915581703186</v>
+        <v>1.400066375732422</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B100">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C100">
-        <v>1.114065170288086</v>
+        <v>1.963886380195618</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B101">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C101">
-        <v>1.425643682479858</v>
+        <v>2.449642658233643</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B102">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C102">
-        <v>1.737359523773193</v>
+        <v>2.820290088653564</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B103">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C103">
-        <v>1.778470039367676</v>
+        <v>2.938011646270752</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B104">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C104">
-        <v>1.620978713035583</v>
+        <v>2.872182369232178</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B105">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C105">
-        <v>1.232329368591309</v>
+        <v>2.864873647689819</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B106">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C106">
-        <v>0.9210061430931091</v>
+        <v>2.611462593078613</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B107">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C107">
-        <v>0.4482847154140472</v>
+        <v>2.190892219543457</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B108">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C108">
-        <v>0.2125383466482162</v>
+        <v>1.624607563018799</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B109">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C109">
-        <v>0.04710355401039124</v>
+        <v>0.9192894101142883</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B110">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C110">
-        <v>-3.720469612744637E-05</v>
+        <v>0.3943458497524261</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B111">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C111">
-        <v>7.082430238369852E-05</v>
+        <v>0.059787817299366</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1">
-        <v>45440</v>
+        <v>45465</v>
       </c>
       <c r="B112">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C112">
-        <v>-6.668505375273526E-05</v>
+        <v>-0.0001241150603163987</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1">
-        <v>45441</v>
+        <v>45465</v>
       </c>
       <c r="B113">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C113">
-        <v>3.76159259758424E-05</v>
+        <v>-0.001287857419811189</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1">
-        <v>45441</v>
+        <v>45465</v>
       </c>
       <c r="B114">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C114">
-        <v>3.90390632674098E-05</v>
+        <v>-0.003351741936057806</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B115">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C115">
-        <v>3.90390632674098E-05</v>
+        <v>0.000318768376018852</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B116">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C116">
-        <v>3.90390632674098E-05</v>
+        <v>0.0008583184680901468</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B117">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C117">
-        <v>0.0001332441170234233</v>
+        <v>0.001161616062745452</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B118">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C118">
-        <v>0.007658921647816896</v>
+        <v>0.0004537669592536986</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B119">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C119">
-        <v>0.1937922388315201</v>
+        <v>0.0006448857020586729</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B120">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C120">
-        <v>0.5244823694229126</v>
+        <v>0.01623907499015331</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B121">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C121">
-        <v>0.7742630243301392</v>
+        <v>0.2648482322692871</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B122">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C122">
-        <v>1.106024503707886</v>
+        <v>0.7895097732543945</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B123">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C123">
-        <v>1.638098835945129</v>
+        <v>1.360848546028137</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B124">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C124">
-        <v>2.020453214645386</v>
+        <v>1.944158911705017</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B125">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C125">
-        <v>2.216177940368652</v>
+        <v>2.398345947265625</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B126">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C126">
-        <v>2.258945465087891</v>
+        <v>2.737311840057373</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B127">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C127">
-        <v>2.063277721405029</v>
+        <v>2.937716722488403</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B128">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C128">
-        <v>1.77626633644104</v>
+        <v>2.861214876174927</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B129">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C129">
-        <v>1.363487005233765</v>
+        <v>2.850486516952515</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B130">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C130">
-        <v>0.9344030618667603</v>
+        <v>2.553919553756714</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B131">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C131">
-        <v>0.4998587369918823</v>
+        <v>1.956486940383911</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B132">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C132">
-        <v>0.2089321166276932</v>
+        <v>1.310512900352478</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B133">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C133">
-        <v>0.0564991794526577</v>
+        <v>0.7961176037788391</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B134">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C134">
-        <v>0.0001815024588722736</v>
+        <v>0.3395379483699799</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B135">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C135">
-        <v>1.505393538536737E-05</v>
+        <v>0.08986833691596985</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1">
-        <v>45441</v>
+        <v>45466</v>
       </c>
       <c r="B136">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C136">
-        <v>-7.980933332873974E-06</v>
+        <v>-0.0009267231216654181</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1">
-        <v>45442</v>
+        <v>45466</v>
       </c>
       <c r="B137">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C137">
-        <v>5.239401798462495E-05</v>
+        <v>-0.003089947160333395</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1">
-        <v>45442</v>
+        <v>45466</v>
       </c>
       <c r="B138">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C138">
-        <v>4.430651824804954E-05</v>
+        <v>0.0008044252754189074</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B139">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C139">
-        <v>4.151792381890118E-05</v>
+        <v>0.0008356549078598619</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B140">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C140">
-        <v>3.989675315096974E-05</v>
+        <v>0.0008340337080881</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B141">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C141">
-        <v>9.178659820463508E-05</v>
+        <v>0.0003154678561259061</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B142">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C142">
-        <v>0.01102321688085794</v>
+        <v>-0.0008932733908295631</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B143">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C143">
-        <v>0.2320841699838638</v>
+        <v>-0.0005052073393017054</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B144">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C144">
-        <v>0.6845710873603821</v>
+        <v>0.01202301029115915</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B145">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C145">
-        <v>1.140897035598755</v>
+        <v>0.2655326724052429</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B146">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C146">
-        <v>1.672193765640259</v>
+        <v>0.7899199724197388</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B147">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C147">
-        <v>1.975555896759033</v>
+        <v>1.400651454925537</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B148">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C148">
-        <v>2.18968677520752</v>
+        <v>1.97104012966156</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B149">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C149">
-        <v>2.185932397842407</v>
+        <v>2.464006185531616</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B150">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C150">
-        <v>2.181912899017334</v>
+        <v>2.828693389892578</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B151">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C151">
-        <v>1.96988570690155</v>
+        <v>2.942850351333618</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B152">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C152">
-        <v>1.67196524143219</v>
+        <v>2.871886491775513</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B153">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C153">
-        <v>1.278994798660278</v>
+        <v>2.864750146865845</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B154">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C154">
-        <v>0.9175560474395752</v>
+        <v>2.663365364074707</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B155">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C155">
-        <v>0.4982601404190063</v>
+        <v>2.268237590789795</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B156">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C156">
-        <v>0.2180136293172836</v>
+        <v>1.69916033744812</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B157">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C157">
-        <v>0.05751275643706322</v>
+        <v>1.037136793136597</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B158">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C158">
-        <v>3.846708204946481E-05</v>
+        <v>0.4216809570789337</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B159">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C159">
-        <v>3.659437425085343E-05</v>
+        <v>0.06268718093633652</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1">
-        <v>45442</v>
+        <v>45467</v>
       </c>
       <c r="B160">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C160">
-        <v>0.0001559337542857975</v>
+        <v>-0.0004382968472782522</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1">
-        <v>45443</v>
+        <v>45467</v>
       </c>
       <c r="B161">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C161">
-        <v>0.0002221430913778022</v>
+        <v>-0.001061450457200408</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1">
-        <v>45443</v>
+        <v>45467</v>
       </c>
       <c r="B162">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C162">
-        <v>0.0002420498203719035</v>
+        <v>-5.889928070246242E-05</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="1">
-        <v>45443</v>
+        <v>45468</v>
       </c>
       <c r="B163">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C163">
-        <v>0.000230542806093581</v>
+        <v>0.001006055157631636</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1">
-        <v>45443</v>
+        <v>45468</v>
       </c>
       <c r="B164">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C164">
-        <v>0.000230542806093581</v>
+        <v>0.0008576763211749494</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1">
-        <v>45443</v>
+        <v>45468</v>
       </c>
       <c r="B165">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C165">
-        <v>0.0003272769681643695</v>
+        <v>-2.055280492641032E-05</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="1">
-        <v>45443</v>
+        <v>45468</v>
       </c>
       <c r="B166">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C166">
-        <v>0.007964997552335262</v>
+        <v>-0.0008335731108672917</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="1">
-        <v>45443</v>
+        <v>45468</v>
       </c>
       <c r="B167">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C167">
-        <v>0.1762947887182236</v>
+        <v>-0.0006064581102691591</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="1">
-        <v>45443</v>
+        <v>45468</v>
       </c>
       <c r="B168">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C168">
-        <v>0.4667447507381439</v>
+        <v>0.01215870957821608</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="1">
-        <v>45443</v>
+        <v>45468</v>
       </c>
       <c r="B169">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C169">
-        <v>0.7585582137107849</v>
+        <v>0.2658553719520569</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="1">
-        <v>45443</v>
+        <v>45468</v>
       </c>
       <c r="B170">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C170">
-        <v>1.079959034919739</v>
+        <v>0.8048241138458252</v>
       </c>
     </row>
   </sheetData>

--- a/Transavia/Production/Results/Results_daily_Brasov.xlsx
+++ b/Transavia/Production/Results/Results_daily_Brasov.xlsx
@@ -377,1861 +377,1861 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>-3.499720696709119E-05</v>
+        <v>-0.0001897114561870694</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>-0.0001313099928665906</v>
+        <v>-0.000403206329792738</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>1.939919590950012</v>
+        <v>2.918204784393311</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C5">
-        <v>2.546417474746704</v>
+        <v>2.865164995193481</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C6">
-        <v>2.887041568756104</v>
+        <v>2.686995983123779</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C7">
-        <v>2.862788915634155</v>
+        <v>2.252363204956055</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B8">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C8">
-        <v>2.632609844207764</v>
+        <v>1.595844388008118</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B9">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C9">
-        <v>2.29271674156189</v>
+        <v>0.8884466886520386</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B10">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C10">
-        <v>1.765712261199951</v>
+        <v>0.4083820581436157</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B11">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C11">
-        <v>1.343736171722412</v>
+        <v>0.1723232567310333</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B12">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C12">
-        <v>1.027080178260803</v>
+        <v>0.03203533962368965</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B13">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C13">
-        <v>0.805854320526123</v>
+        <v>0.0002017242222791538</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B14">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C14">
-        <v>0.391895204782486</v>
+        <v>0.0003680653753690422</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>45461</v>
+        <v>45506</v>
       </c>
       <c r="B15">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C15">
-        <v>0.08542836457490921</v>
+        <v>-0.0005720652407035232</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>45461</v>
+        <v>45507</v>
       </c>
       <c r="B16">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>0.0006819336558692157</v>
+        <v>-0.002325628185644746</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>45461</v>
+        <v>45507</v>
       </c>
       <c r="B17">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>-0.0001760782615747303</v>
+        <v>0.0001113126563723199</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>45461</v>
+        <v>45507</v>
       </c>
       <c r="B18">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>-0.0001760782615747303</v>
+        <v>-0.0001438403560314327</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C19">
-        <v>-0.0007030843989923596</v>
+        <v>0.0004787950310856104</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C20">
-        <v>0.0001003640936687589</v>
+        <v>0.0001142635373980738</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C21">
-        <v>0.0001003640936687589</v>
+        <v>0.0005120504647493362</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C22">
-        <v>0.0001036171015584841</v>
+        <v>0.08849016577005386</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C23">
-        <v>0.0001239651173818856</v>
+        <v>0.5207226872444153</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B24">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C24">
-        <v>0.01644747890532017</v>
+        <v>1.120256781578064</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B25">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C25">
-        <v>0.2957980334758759</v>
+        <v>1.747277975082397</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B26">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C26">
-        <v>0.821370542049408</v>
+        <v>2.306688547134399</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B27">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C27">
-        <v>1.398465752601624</v>
+        <v>2.745240211486816</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B28">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C28">
-        <v>2.055062055587769</v>
+        <v>2.775211572647095</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B29">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C29">
-        <v>2.524578809738159</v>
+        <v>2.581261157989502</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B30">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C30">
-        <v>2.868005514144897</v>
+        <v>2.28096604347229</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B31">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C31">
-        <v>2.954883575439453</v>
+        <v>1.731446027755737</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B32">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C32">
-        <v>2.883528470993042</v>
+        <v>1.077287435531616</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B33">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C33">
-        <v>2.773480892181396</v>
+        <v>0.7334489226341248</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B34">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C34">
-        <v>2.470631837844849</v>
+        <v>0.3442243039608002</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B35">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C35">
-        <v>2.048697948455811</v>
+        <v>0.1589255332946777</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B36">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C36">
-        <v>1.457204222679138</v>
+        <v>0.01808648556470871</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B37">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C37">
-        <v>0.9087405800819397</v>
+        <v>-0.000352625735104084</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B38">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C38">
-        <v>0.4046466946601868</v>
+        <v>-9.024637256516144E-05</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>45462</v>
+        <v>45507</v>
       </c>
       <c r="B39">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C39">
-        <v>0.08440438657999039</v>
+        <v>4.548933429759927E-05</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>45462</v>
+        <v>45508</v>
       </c>
       <c r="B40">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>-0.003824806539341807</v>
+        <v>3.920759627362713E-05</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>45462</v>
+        <v>45508</v>
       </c>
       <c r="B41">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C41">
-        <v>-0.001052239793352783</v>
+        <v>-2.143842721125111E-05</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>45462</v>
+        <v>45508</v>
       </c>
       <c r="B42">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C42">
-        <v>0.001179903745651245</v>
+        <v>9.903506725095212E-05</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C43">
-        <v>0.001608536811545491</v>
+        <v>2.063435573518291E-07</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C44">
-        <v>0.0002396964409854263</v>
+        <v>2.202742689405568E-05</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B45">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C45">
-        <v>-2.055280492641032E-05</v>
+        <v>0.0004581933608278632</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B46">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C46">
-        <v>0.0004108563880436122</v>
+        <v>0.05066106095910072</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B47">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C47">
-        <v>-0.0007593522313982248</v>
+        <v>0.290912389755249</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B48">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C48">
-        <v>0.01856130361557007</v>
+        <v>0.5613097548484802</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B49">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C49">
-        <v>0.2688986957073212</v>
+        <v>0.8702603578567505</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B50">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C50">
-        <v>0.8007174730300903</v>
+        <v>1.241098284721375</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B51">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C51">
-        <v>1.357987403869629</v>
+        <v>1.586674451828003</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B52">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C52">
-        <v>1.929905414581299</v>
+        <v>1.722230195999146</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B53">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C53">
-        <v>2.39696741104126</v>
+        <v>1.781833052635193</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B54">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C54">
-        <v>2.759686708450317</v>
+        <v>1.694300413131714</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B55">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C55">
-        <v>2.953411340713501</v>
+        <v>1.55804443359375</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B56">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C56">
-        <v>2.744726896286011</v>
+        <v>1.234784603118896</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B57">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C57">
-        <v>2.555145978927612</v>
+        <v>0.8887091875076294</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B58">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C58">
-        <v>2.263466119766235</v>
+        <v>0.4247215986251831</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B59">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C59">
-        <v>1.867343664169312</v>
+        <v>0.2067370861768723</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B60">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C60">
-        <v>1.366187810897827</v>
+        <v>0.01974785327911377</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B61">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C61">
-        <v>0.8983224630355835</v>
+        <v>-0.0001994080957956612</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B62">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C62">
-        <v>0.4012491106987</v>
+        <v>-2.265974035253748E-05</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1">
-        <v>45463</v>
+        <v>45508</v>
       </c>
       <c r="B63">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C63">
-        <v>0.08270791172981262</v>
+        <v>1.660478119447362E-05</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1">
-        <v>45463</v>
+        <v>45509</v>
       </c>
       <c r="B64">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>-0.0009622631478123367</v>
+        <v>1.901355972222518E-05</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1">
-        <v>45463</v>
+        <v>45509</v>
       </c>
       <c r="B65">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C65">
-        <v>0.001119895954616368</v>
+        <v>2.063435573518291E-07</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1">
-        <v>45463</v>
+        <v>45509</v>
       </c>
       <c r="B66">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C66">
-        <v>0.000681903213262558</v>
+        <v>-4.469462146516889E-05</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C67">
-        <v>-0.0007030843989923596</v>
+        <v>-3.610180283430964E-05</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C68">
-        <v>0.0001036171015584841</v>
+        <v>3.522003225953085E-06</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B69">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C69">
-        <v>0.0001036171015584841</v>
+        <v>0.0004283694142941386</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B70">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C70">
-        <v>0.0001036171015584841</v>
+        <v>0.07451970130205154</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B71">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C71">
-        <v>0.000136724891490303</v>
+        <v>0.437259316444397</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B72">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C72">
-        <v>0.01646257564425468</v>
+        <v>0.8949331045150757</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B73">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C73">
-        <v>0.2758605182170868</v>
+        <v>1.663658499717712</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B74">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C74">
-        <v>0.8064948320388794</v>
+        <v>2.347957611083984</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B75">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C75">
-        <v>1.383849620819092</v>
+        <v>2.798909187316895</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B76">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C76">
-        <v>1.98661196231842</v>
+        <v>2.944769859313965</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B77">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C77">
-        <v>2.485585451126099</v>
+        <v>2.769449234008789</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B78">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C78">
-        <v>2.843494415283203</v>
+        <v>2.570870876312256</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B79">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C79">
-        <v>2.961782932281494</v>
+        <v>2.312168121337891</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B80">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C80">
-        <v>2.872260570526123</v>
+        <v>1.877743124961853</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B81">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C81">
-        <v>2.864788055419922</v>
+        <v>1.265698909759521</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B82">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C82">
-        <v>2.646899461746216</v>
+        <v>0.7238807082176208</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B83">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C83">
-        <v>2.200063228607178</v>
+        <v>0.1876280605792999</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B84">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C84">
-        <v>1.670767784118652</v>
+        <v>0.02367026172578335</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B85">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C85">
-        <v>1.043513655662537</v>
+        <v>0.0001377230073558167</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B86">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C86">
-        <v>0.4099055230617523</v>
+        <v>4.006603558082134E-05</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1">
-        <v>45464</v>
+        <v>45509</v>
       </c>
       <c r="B87">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C87">
-        <v>0.07300185412168503</v>
+        <v>4.006603558082134E-05</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1">
-        <v>45464</v>
+        <v>45510</v>
       </c>
       <c r="B88">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C88">
-        <v>-0.0004382968472782522</v>
+        <v>2.063435573518291E-07</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1">
-        <v>45464</v>
+        <v>45510</v>
       </c>
       <c r="B89">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C89">
-        <v>-0.001061450457200408</v>
+        <v>1.901355972222518E-05</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1">
-        <v>45464</v>
+        <v>45510</v>
       </c>
       <c r="B90">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C90">
-        <v>-5.889928070246242E-05</v>
+        <v>-2.475851397321094E-05</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C91">
-        <v>0.0008576763211749494</v>
+        <v>-0.0001871961285360157</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C92">
-        <v>0.0009005864267237484</v>
+        <v>-6.312898040050641E-05</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B93">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C93">
-        <v>0.0002396964409854263</v>
+        <v>0.0004552458121906966</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B94">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C94">
-        <v>0.0007140157977119088</v>
+        <v>0.03944762796163559</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B95">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C95">
-        <v>0.0009051347151398659</v>
+        <v>0.2567203640937805</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B96">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C96">
-        <v>0.01641803421080112</v>
+        <v>0.5754549503326416</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B97">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C97">
-        <v>0.2722707092761993</v>
+        <v>0.9643818140029907</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B98">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C98">
-        <v>0.82325279712677</v>
+        <v>1.312188625335693</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B99">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C99">
-        <v>1.400066375732422</v>
+        <v>1.738265872001648</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B100">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C100">
-        <v>1.963886380195618</v>
+        <v>1.845896244049072</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B101">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C101">
-        <v>2.449642658233643</v>
+        <v>1.726048588752747</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B102">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C102">
-        <v>2.820290088653564</v>
+        <v>1.479726552963257</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B103">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C103">
-        <v>2.938011646270752</v>
+        <v>1.389973521232605</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B104">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C104">
-        <v>2.872182369232178</v>
+        <v>1.170959711074829</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B105">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C105">
-        <v>2.864873647689819</v>
+        <v>0.9321762919425964</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B106">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C106">
-        <v>2.611462593078613</v>
+        <v>0.5931673049926758</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B107">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C107">
-        <v>2.190892219543457</v>
+        <v>0.1939102709293365</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B108">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C108">
-        <v>1.624607563018799</v>
+        <v>0.02988810837268829</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B109">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C109">
-        <v>0.9192894101142883</v>
+        <v>3.299153104308061E-05</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B110">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C110">
-        <v>0.3943458497524261</v>
+        <v>2.595691694295965E-05</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1">
-        <v>45465</v>
+        <v>45510</v>
       </c>
       <c r="B111">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C111">
-        <v>0.059787817299366</v>
+        <v>2.595691694295965E-05</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1">
-        <v>45465</v>
+        <v>45511</v>
       </c>
       <c r="B112">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C112">
-        <v>-0.0001241150603163987</v>
+        <v>-1.25993983601802E-05</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1">
-        <v>45465</v>
+        <v>45511</v>
       </c>
       <c r="B113">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C113">
-        <v>-0.001287857419811189</v>
+        <v>-8.496231203025673E-06</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1">
-        <v>45465</v>
+        <v>45511</v>
       </c>
       <c r="B114">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C114">
-        <v>-0.003351741936057806</v>
+        <v>-8.340043859789148E-05</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B115">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C115">
-        <v>0.000318768376018852</v>
+        <v>-0.0001812038681237027</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B116">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C116">
-        <v>0.0008583184680901468</v>
+        <v>-0.0001611168263480067</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B117">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C117">
-        <v>0.001161616062745452</v>
+        <v>0.0002297972678206861</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B118">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C118">
-        <v>0.0004537669592536986</v>
+        <v>0.08204268664121628</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B119">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C119">
-        <v>0.0006448857020586729</v>
+        <v>0.5188114047050476</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B120">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C120">
-        <v>0.01623907499015331</v>
+        <v>1.151842951774597</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B121">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C121">
-        <v>0.2648482322692871</v>
+        <v>1.798284292221069</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B122">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C122">
-        <v>0.7895097732543945</v>
+        <v>2.433178901672363</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B123">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C123">
-        <v>1.360848546028137</v>
+        <v>2.844884395599365</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B124">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C124">
-        <v>1.944158911705017</v>
+        <v>2.953468084335327</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B125">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C125">
-        <v>2.398345947265625</v>
+        <v>2.754634618759155</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B126">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C126">
-        <v>2.737311840057373</v>
+        <v>2.422598361968994</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B127">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C127">
-        <v>2.937716722488403</v>
+        <v>2.03817892074585</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B128">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C128">
-        <v>2.861214876174927</v>
+        <v>1.703238368034363</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B129">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C129">
-        <v>2.850486516952515</v>
+        <v>1.172260284423828</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B130">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C130">
-        <v>2.553919553756714</v>
+        <v>0.7050163745880127</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B131">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C131">
-        <v>1.956486940383911</v>
+        <v>0.187322661280632</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B132">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C132">
-        <v>1.310512900352478</v>
+        <v>0.01882614754140377</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B133">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C133">
-        <v>0.7961176037788391</v>
+        <v>-1.975846089408151E-06</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B134">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C134">
-        <v>0.3395379483699799</v>
+        <v>8.237681322498247E-05</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1">
-        <v>45466</v>
+        <v>45511</v>
       </c>
       <c r="B135">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C135">
-        <v>0.08986833691596985</v>
+        <v>0.0001440118794562295</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1">
-        <v>45466</v>
+        <v>45512</v>
       </c>
       <c r="B136">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C136">
-        <v>-0.0009267231216654181</v>
+        <v>7.403152994811535E-05</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1">
-        <v>45466</v>
+        <v>45512</v>
       </c>
       <c r="B137">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C137">
-        <v>-0.003089947160333395</v>
+        <v>-4.660906051867642E-05</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1">
-        <v>45466</v>
+        <v>45512</v>
       </c>
       <c r="B138">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C138">
-        <v>0.0008044252754189074</v>
+        <v>-4.660906051867642E-05</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B139">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C139">
-        <v>0.0008356549078598619</v>
+        <v>-7.0254820457194E-05</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B140">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C140">
-        <v>0.0008340337080881</v>
+        <v>-2.924348336819094E-05</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B141">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C141">
-        <v>0.0003154678561259061</v>
+        <v>0.0003828441549558192</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B142">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C142">
-        <v>-0.0008932733908295631</v>
+        <v>0.06776920706033707</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B143">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C143">
-        <v>-0.0005052073393017054</v>
+        <v>0.503880500793457</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B144">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C144">
-        <v>0.01202301029115915</v>
+        <v>1.128908395767212</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B145">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C145">
-        <v>0.2655326724052429</v>
+        <v>1.747277975082397</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B146">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C146">
-        <v>0.7899199724197388</v>
+        <v>2.328269004821777</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B147">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C147">
-        <v>1.400651454925537</v>
+        <v>2.740986824035645</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B148">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C148">
-        <v>1.97104012966156</v>
+        <v>2.890021562576294</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B149">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C149">
-        <v>2.464006185531616</v>
+        <v>2.866085290908813</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B150">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C150">
-        <v>2.828693389892578</v>
+        <v>2.775850534439087</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B151">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C151">
-        <v>2.942850351333618</v>
+        <v>2.491998434066772</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B152">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C152">
-        <v>2.871886491775513</v>
+        <v>2.094337463378906</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B153">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C153">
-        <v>2.864750146865845</v>
+        <v>1.50434410572052</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B154">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C154">
-        <v>2.663365364074707</v>
+        <v>0.8154292702674866</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B155">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C155">
-        <v>2.268237590789795</v>
+        <v>0.2172895967960358</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B156">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C156">
-        <v>1.69916033744812</v>
+        <v>0.02015688084065914</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B157">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C157">
-        <v>1.037136793136597</v>
+        <v>-0.000263450521742925</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B158">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C158">
-        <v>0.4216809570789337</v>
+        <v>0.0004508188576437533</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="1">
-        <v>45467</v>
+        <v>45512</v>
       </c>
       <c r="B159">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C159">
-        <v>0.06268718093633652</v>
+        <v>-1.975846089408151E-06</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1">
-        <v>45467</v>
+        <v>45513</v>
       </c>
       <c r="B160">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C160">
-        <v>-0.0004382968472782522</v>
+        <v>-0.000128706989926286</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1">
-        <v>45467</v>
+        <v>45513</v>
       </c>
       <c r="B161">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C161">
-        <v>-0.001061450457200408</v>
+        <v>-4.612062184605747E-05</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1">
-        <v>45467</v>
+        <v>45513</v>
       </c>
       <c r="B162">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C162">
-        <v>-5.889928070246242E-05</v>
+        <v>-0.0001495492178946733</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="1">
-        <v>45468</v>
+        <v>45513</v>
       </c>
       <c r="B163">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C163">
-        <v>0.001006055157631636</v>
+        <v>-0.0001604060671525076</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1">
-        <v>45468</v>
+        <v>45513</v>
       </c>
       <c r="B164">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C164">
-        <v>0.0008576763211749494</v>
+        <v>-0.0001226478052558377</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1">
-        <v>45468</v>
+        <v>45513</v>
       </c>
       <c r="B165">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C165">
-        <v>-2.055280492641032E-05</v>
+        <v>0.0003038542636204511</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="1">
-        <v>45468</v>
+        <v>45513</v>
       </c>
       <c r="B166">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C166">
-        <v>-0.0008335731108672917</v>
+        <v>0.07176763564348221</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="1">
-        <v>45468</v>
+        <v>45513</v>
       </c>
       <c r="B167">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C167">
-        <v>-0.0006064581102691591</v>
+        <v>0.517720639705658</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="1">
-        <v>45468</v>
+        <v>45513</v>
       </c>
       <c r="B168">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C168">
-        <v>0.01215870957821608</v>
+        <v>1.097222566604614</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="1">
-        <v>45468</v>
+        <v>45513</v>
       </c>
       <c r="B169">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C169">
-        <v>0.2658553719520569</v>
+        <v>1.707533955574036</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="1">
-        <v>45468</v>
+        <v>45513</v>
       </c>
       <c r="B170">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C170">
-        <v>0.8048241138458252</v>
+        <v>2.291774988174438</v>
       </c>
     </row>
   </sheetData>

--- a/Transavia/Production/Results/Results_daily_Brasov.xlsx
+++ b/Transavia/Production/Results/Results_daily_Brasov.xlsx
@@ -377,1861 +377,1861 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>45506</v>
+        <v>45511</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2">
-        <v>-0.0001897114561870694</v>
+        <v>-0.0001817237498471513</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>45506</v>
+        <v>45511</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3">
-        <v>-0.000403206329792738</v>
+        <v>-0.0001156208745669574</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>45506</v>
+        <v>45511</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4">
-        <v>2.918204784393311</v>
+        <v>0.000554985657799989</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>45506</v>
+        <v>45511</v>
       </c>
       <c r="B5">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5">
-        <v>2.865164995193481</v>
+        <v>2.363752841949463</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>45506</v>
+        <v>45511</v>
       </c>
       <c r="B6">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6">
-        <v>2.686995983123779</v>
+        <v>2.822266101837158</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>45506</v>
+        <v>45511</v>
       </c>
       <c r="B7">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C7">
-        <v>2.252363204956055</v>
+        <v>2.361650228500366</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>45506</v>
+        <v>45511</v>
       </c>
       <c r="B8">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8">
-        <v>1.595844388008118</v>
+        <v>2.173640966415405</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>45506</v>
+        <v>45511</v>
       </c>
       <c r="B9">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C9">
-        <v>0.8884466886520386</v>
+        <v>2.150332927703857</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>45506</v>
+        <v>45511</v>
       </c>
       <c r="B10">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C10">
-        <v>0.4083820581436157</v>
+        <v>1.901238679885864</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>45506</v>
+        <v>45511</v>
       </c>
       <c r="B11">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C11">
-        <v>0.1723232567310333</v>
+        <v>1.458559036254883</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>45506</v>
+        <v>45511</v>
       </c>
       <c r="B12">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C12">
-        <v>0.03203533962368965</v>
+        <v>0.9023810625076294</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>45506</v>
+        <v>45511</v>
       </c>
       <c r="B13">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C13">
-        <v>0.0002017242222791538</v>
+        <v>0.2934904992580414</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>45506</v>
+        <v>45512</v>
       </c>
       <c r="B14">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>0.0003680653753690422</v>
+        <v>0.03273991495370865</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>45506</v>
+        <v>45512</v>
       </c>
       <c r="B15">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>-0.0005720652407035232</v>
+        <v>-6.315988684946205E-06</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>-0.002325628185644746</v>
+        <v>8.658209117129445E-05</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>0.0001113126563723199</v>
+        <v>8.658209117129445E-05</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C18">
-        <v>-0.0001438403560314327</v>
+        <v>9.370442421641201E-05</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C19">
-        <v>0.0004787950310856104</v>
+        <v>0.0005092542269267142</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C20">
-        <v>0.0001142635373980738</v>
+        <v>0.0007170434691943228</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C21">
-        <v>0.0005120504647493362</v>
+        <v>0.0004023133951704949</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B22">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C22">
-        <v>0.08849016577005386</v>
+        <v>-6.18683043285273E-06</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B23">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C23">
-        <v>0.5207226872444153</v>
+        <v>2.288378709636163E-06</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B24">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C24">
-        <v>1.120256781578064</v>
+        <v>0.08825208991765976</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B25">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C25">
-        <v>1.747277975082397</v>
+        <v>0.5294868946075439</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B26">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C26">
-        <v>2.306688547134399</v>
+        <v>1.130032181739807</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B27">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C27">
-        <v>2.745240211486816</v>
+        <v>1.792790412902832</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B28">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C28">
-        <v>2.775211572647095</v>
+        <v>2.355429887771606</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B29">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C29">
-        <v>2.581261157989502</v>
+        <v>2.700779914855957</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B30">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C30">
-        <v>2.28096604347229</v>
+        <v>2.836971521377563</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B31">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C31">
-        <v>1.731446027755737</v>
+        <v>2.77369236946106</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B32">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C32">
-        <v>1.077287435531616</v>
+        <v>2.623674631118774</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B33">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C33">
-        <v>0.7334489226341248</v>
+        <v>2.238699674606323</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B34">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C34">
-        <v>0.3442243039608002</v>
+        <v>1.71220076084137</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B35">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C35">
-        <v>0.1589255332946777</v>
+        <v>1.067434668540955</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B36">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C36">
-        <v>0.01808648556470871</v>
+        <v>0.6211084723472595</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>45507</v>
+        <v>45512</v>
       </c>
       <c r="B37">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C37">
-        <v>-0.000352625735104084</v>
+        <v>0.2224987596273422</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>45507</v>
+        <v>45513</v>
       </c>
       <c r="B38">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>-9.024637256516144E-05</v>
+        <v>0.02541939541697502</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>45507</v>
+        <v>45513</v>
       </c>
       <c r="B39">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C39">
-        <v>4.548933429759927E-05</v>
+        <v>0.0007673288346268237</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C40">
-        <v>3.920759627362713E-05</v>
+        <v>0.000514020852278918</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>-2.143842721125111E-05</v>
+        <v>-0.000128706989926286</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C42">
-        <v>9.903506725095212E-05</v>
+        <v>0.000462350231828168</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B43">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C43">
-        <v>2.063435573518291E-07</v>
+        <v>0.0005516608944162726</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B44">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C44">
-        <v>2.202742689405568E-05</v>
+        <v>0.000602003070525825</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B45">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C45">
-        <v>0.0004581933608278632</v>
+        <v>0.0003884969337377697</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B46">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C46">
-        <v>0.05066106095910072</v>
+        <v>0.0004697951080743223</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B47">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C47">
-        <v>0.290912389755249</v>
+        <v>0.0004303466703277081</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B48">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C48">
-        <v>0.5613097548484802</v>
+        <v>0.04898718744516373</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B49">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C49">
-        <v>0.8702603578567505</v>
+        <v>0.3899039328098297</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B50">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C50">
-        <v>1.241098284721375</v>
+        <v>0.8766809701919556</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B51">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C51">
-        <v>1.586674451828003</v>
+        <v>1.536402940750122</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B52">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C52">
-        <v>1.722230195999146</v>
+        <v>1.966141223907471</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B53">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C53">
-        <v>1.781833052635193</v>
+        <v>2.097707748413086</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B54">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C54">
-        <v>1.694300413131714</v>
+        <v>1.887072801589966</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B55">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C55">
-        <v>1.55804443359375</v>
+        <v>1.701266169548035</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B56">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C56">
-        <v>1.234784603118896</v>
+        <v>1.502571225166321</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B57">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C57">
-        <v>0.8887091875076294</v>
+        <v>1.208357572555542</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B58">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C58">
-        <v>0.4247215986251831</v>
+        <v>0.9063936471939087</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B59">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C59">
-        <v>0.2067370861768723</v>
+        <v>0.5730875134468079</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B60">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C60">
-        <v>0.01974785327911377</v>
+        <v>0.3147890567779541</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1">
-        <v>45508</v>
+        <v>45513</v>
       </c>
       <c r="B61">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C61">
-        <v>-0.0001994080957956612</v>
+        <v>0.141046330332756</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1">
-        <v>45508</v>
+        <v>45514</v>
       </c>
       <c r="B62">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C62">
-        <v>-2.265974035253748E-05</v>
+        <v>0.01468760054558516</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1">
-        <v>45508</v>
+        <v>45514</v>
       </c>
       <c r="B63">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C63">
-        <v>1.660478119447362E-05</v>
+        <v>3.12083693643217E-06</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C64">
-        <v>1.901355972222518E-05</v>
+        <v>-2.089494228130206E-05</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65">
-        <v>2.063435573518291E-07</v>
+        <v>-3.834774133792962E-07</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B66">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C66">
-        <v>-4.469462146516889E-05</v>
+        <v>0.0001536855270387605</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B67">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C67">
-        <v>-3.610180283430964E-05</v>
+        <v>0.000655281008221209</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B68">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C68">
-        <v>3.522003225953085E-06</v>
+        <v>0.0005457947263494134</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B69">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C69">
-        <v>0.0004283694142941386</v>
+        <v>0.0002708706306293607</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B70">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C70">
-        <v>0.07451970130205154</v>
+        <v>0.000581214961130172</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B71">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C71">
-        <v>0.437259316444397</v>
+        <v>0.000541767047252506</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B72">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C72">
-        <v>0.8949331045150757</v>
+        <v>0.05430186167359352</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B73">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C73">
-        <v>1.663658499717712</v>
+        <v>0.4322949051856995</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B74">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C74">
-        <v>2.347957611083984</v>
+        <v>0.9548856616020203</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B75">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C75">
-        <v>2.798909187316895</v>
+        <v>1.625020265579224</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B76">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C76">
-        <v>2.944769859313965</v>
+        <v>2.131851434707642</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B77">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C77">
-        <v>2.769449234008789</v>
+        <v>2.488680601119995</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B78">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C78">
-        <v>2.570870876312256</v>
+        <v>2.708086967468262</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B79">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C79">
-        <v>2.312168121337891</v>
+        <v>2.741402149200439</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B80">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C80">
-        <v>1.877743124961853</v>
+        <v>2.739120006561279</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B81">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C81">
-        <v>1.265698909759521</v>
+        <v>2.504460096359253</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B82">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C82">
-        <v>0.7238807082176208</v>
+        <v>2.07297945022583</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B83">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C83">
-        <v>0.1876280605792999</v>
+        <v>1.47142231464386</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B84">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C84">
-        <v>0.02367026172578335</v>
+        <v>0.8225861191749573</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1">
-        <v>45509</v>
+        <v>45514</v>
       </c>
       <c r="B85">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C85">
-        <v>0.0001377230073558167</v>
+        <v>0.2297156900167465</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1">
-        <v>45509</v>
+        <v>45515</v>
       </c>
       <c r="B86">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C86">
-        <v>4.006603558082134E-05</v>
+        <v>0.01981661841273308</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1">
-        <v>45509</v>
+        <v>45515</v>
       </c>
       <c r="B87">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C87">
-        <v>4.006603558082134E-05</v>
+        <v>0.0006468908977694809</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C88">
-        <v>2.063435573518291E-07</v>
+        <v>-0.0001161564723588526</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89">
-        <v>1.901355972222518E-05</v>
+        <v>-6.509771083074156E-06</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B90">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C90">
-        <v>-2.475851397321094E-05</v>
+        <v>0.000126814135001041</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B91">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C91">
-        <v>-0.0001871961285360157</v>
+        <v>0.0005398899666033685</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B92">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C92">
-        <v>-6.312898040050641E-05</v>
+        <v>0.0004330898518674076</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B93">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C93">
-        <v>0.0004552458121906966</v>
+        <v>0.0004939084174111485</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B94">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C94">
-        <v>0.03944762796163559</v>
+        <v>0.0003909995139110833</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B95">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C95">
-        <v>0.2567203640937805</v>
+        <v>0.000399474665755406</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B96">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C96">
-        <v>0.5754549503326416</v>
+        <v>0.06582196056842804</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B97">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C97">
-        <v>0.9643818140029907</v>
+        <v>0.4883199632167816</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B98">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C98">
-        <v>1.312188625335693</v>
+        <v>1.064434885978699</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B99">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C99">
-        <v>1.738265872001648</v>
+        <v>1.74085795879364</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B100">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C100">
-        <v>1.845896244049072</v>
+        <v>2.34267520904541</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B101">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C101">
-        <v>1.726048588752747</v>
+        <v>2.614159345626831</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B102">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C102">
-        <v>1.479726552963257</v>
+        <v>2.767545938491821</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B103">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C103">
-        <v>1.389973521232605</v>
+        <v>2.655290365219116</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B104">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C104">
-        <v>1.170959711074829</v>
+        <v>2.34325098991394</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B105">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C105">
-        <v>0.9321762919425964</v>
+        <v>1.995721220970154</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B106">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C106">
-        <v>0.5931673049926758</v>
+        <v>1.599192142486572</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B107">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C107">
-        <v>0.1939102709293365</v>
+        <v>1.042846202850342</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B108">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C108">
-        <v>0.02988810837268829</v>
+        <v>0.603901207447052</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1">
-        <v>45510</v>
+        <v>45515</v>
       </c>
       <c r="B109">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C109">
-        <v>3.299153104308061E-05</v>
+        <v>0.2382181137800217</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1">
-        <v>45510</v>
+        <v>45516</v>
       </c>
       <c r="B110">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C110">
-        <v>2.595691694295965E-05</v>
+        <v>0.02330585941672325</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1">
-        <v>45510</v>
+        <v>45516</v>
       </c>
       <c r="B111">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C111">
-        <v>2.595691694295965E-05</v>
+        <v>-0.001853676396422088</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C112">
-        <v>-1.25993983601802E-05</v>
+        <v>0.000488004443468526</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C113">
-        <v>-8.496231203025673E-06</v>
+        <v>0.0004263775772415102</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B114">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C114">
-        <v>-8.340043859789148E-05</v>
+        <v>0.0005955324159003794</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B115">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C115">
-        <v>-0.0001812038681237027</v>
+        <v>0.0008244079072028399</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B116">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C116">
-        <v>-0.0001611168263480067</v>
+        <v>0.0004589638265315443</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B117">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C117">
-        <v>0.0002297972678206861</v>
+        <v>0.0009483001194894314</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B118">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C118">
-        <v>0.08204268664121628</v>
+        <v>0.0007859832257963717</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B119">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C119">
-        <v>0.5188114047050476</v>
+        <v>0.000292855518637225</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B120">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C120">
-        <v>1.151842951774597</v>
+        <v>0.06157518923282623</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B121">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C121">
-        <v>1.798284292221069</v>
+        <v>0.4517466127872467</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B122">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C122">
-        <v>2.433178901672363</v>
+        <v>1.055020213127136</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B123">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C123">
-        <v>2.844884395599365</v>
+        <v>1.719407320022583</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B124">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C124">
-        <v>2.953468084335327</v>
+        <v>2.240124940872192</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B125">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C125">
-        <v>2.754634618759155</v>
+        <v>2.563425540924072</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B126">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C126">
-        <v>2.422598361968994</v>
+        <v>2.725619316101074</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B127">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C127">
-        <v>2.03817892074585</v>
+        <v>2.799637079238892</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B128">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C128">
-        <v>1.703238368034363</v>
+        <v>2.679717302322388</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B129">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C129">
-        <v>1.172260284423828</v>
+        <v>2.424251794815063</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B130">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C130">
-        <v>0.7050163745880127</v>
+        <v>1.886625647544861</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B131">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C131">
-        <v>0.187322661280632</v>
+        <v>1.300716519355774</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B132">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C132">
-        <v>0.01882614754140377</v>
+        <v>0.7129672169685364</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1">
-        <v>45511</v>
+        <v>45516</v>
       </c>
       <c r="B133">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C133">
-        <v>-1.975846089408151E-06</v>
+        <v>0.2297776490449905</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1">
-        <v>45511</v>
+        <v>45517</v>
       </c>
       <c r="B134">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C134">
-        <v>8.237681322498247E-05</v>
+        <v>0.02165132947266102</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1">
-        <v>45511</v>
+        <v>45517</v>
       </c>
       <c r="B135">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C135">
-        <v>0.0001440118794562295</v>
+        <v>-0.0001990444434341043</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C136">
-        <v>7.403152994811535E-05</v>
+        <v>-0.00204800721257925</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C137">
-        <v>-4.660906051867642E-05</v>
+        <v>0.0003411606885492802</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B138">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C138">
-        <v>-4.660906051867642E-05</v>
+        <v>0.001322997733950615</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B139">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C139">
-        <v>-7.0254820457194E-05</v>
+        <v>0.00155187351629138</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B140">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C140">
-        <v>-2.924348336819094E-05</v>
+        <v>0.0007741650915704668</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B141">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C141">
-        <v>0.0003828441549558192</v>
+        <v>0.000723110802937299</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B142">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C142">
-        <v>0.06776920706033707</v>
+        <v>0.0005440325476229191</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B143">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C143">
-        <v>0.503880500793457</v>
+        <v>0.0005842876271344721</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B144">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C144">
-        <v>1.128908395767212</v>
+        <v>0.05928225070238113</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B145">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C145">
-        <v>1.747277975082397</v>
+        <v>0.4531138241291046</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B146">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C146">
-        <v>2.328269004821777</v>
+        <v>1.046366810798645</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B147">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C147">
-        <v>2.740986824035645</v>
+        <v>1.67356812953949</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B148">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C148">
-        <v>2.890021562576294</v>
+        <v>2.204397201538086</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B149">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C149">
-        <v>2.866085290908813</v>
+        <v>2.532313108444214</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B150">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C150">
-        <v>2.775850534439087</v>
+        <v>2.725619316101074</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B151">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C151">
-        <v>2.491998434066772</v>
+        <v>2.804185628890991</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B152">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C152">
-        <v>2.094337463378906</v>
+        <v>2.693967342376709</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B153">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C153">
-        <v>1.50434410572052</v>
+        <v>2.472476720809937</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B154">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C154">
-        <v>0.8154292702674866</v>
+        <v>2.017676591873169</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B155">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C155">
-        <v>0.2172895967960358</v>
+        <v>1.411131978034973</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B156">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C156">
-        <v>0.02015688084065914</v>
+        <v>0.7675947546958923</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1">
-        <v>45512</v>
+        <v>45517</v>
       </c>
       <c r="B157">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C157">
-        <v>-0.000263450521742925</v>
+        <v>0.2386968582868576</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="1">
-        <v>45512</v>
+        <v>45518</v>
       </c>
       <c r="B158">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C158">
-        <v>0.0004508188576437533</v>
+        <v>0.02201872505247593</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="1">
-        <v>45512</v>
+        <v>45518</v>
       </c>
       <c r="B159">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C159">
-        <v>-1.975846089408151E-06</v>
+        <v>-0.0002214476262452081</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="1">
-        <v>45513</v>
+        <v>45518</v>
       </c>
       <c r="B160">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C160">
-        <v>-0.000128706989926286</v>
+        <v>-0.002117394004017115</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="1">
-        <v>45513</v>
+        <v>45518</v>
       </c>
       <c r="B161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C161">
-        <v>-4.612062184605747E-05</v>
+        <v>0.0003411606885492802</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="1">
-        <v>45513</v>
+        <v>45518</v>
       </c>
       <c r="B162">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C162">
-        <v>-0.0001495492178946733</v>
+        <v>0.001322997733950615</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="1">
-        <v>45513</v>
+        <v>45518</v>
       </c>
       <c r="B163">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C163">
-        <v>-0.0001604060671525076</v>
+        <v>0.00155187351629138</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="1">
-        <v>45513</v>
+        <v>45518</v>
       </c>
       <c r="B164">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C164">
-        <v>-0.0001226478052558377</v>
+        <v>0.0007741650915704668</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="1">
-        <v>45513</v>
+        <v>45518</v>
       </c>
       <c r="B165">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C165">
-        <v>0.0003038542636204511</v>
+        <v>0.000664396386127919</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="1">
-        <v>45513</v>
+        <v>45518</v>
       </c>
       <c r="B166">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C166">
-        <v>0.07176763564348221</v>
+        <v>0.0007859832257963717</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="1">
-        <v>45513</v>
+        <v>45518</v>
       </c>
       <c r="B167">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C167">
-        <v>0.517720639705658</v>
+        <v>0.0005842876271344721</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="1">
-        <v>45513</v>
+        <v>45518</v>
       </c>
       <c r="B168">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C168">
-        <v>1.097222566604614</v>
+        <v>0.05928225070238113</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="1">
-        <v>45513</v>
+        <v>45518</v>
       </c>
       <c r="B169">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C169">
-        <v>1.707533955574036</v>
+        <v>0.452475905418396</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="1">
-        <v>45513</v>
+        <v>45518</v>
       </c>
       <c r="B170">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C170">
-        <v>2.291774988174438</v>
+        <v>1.044079303741455</v>
       </c>
     </row>
   </sheetData>
